--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>1.809239436019823</v>
       </c>
       <c r="C2">
-        <v>0.4388421542942353</v>
+        <v>0.4388421542942638</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06671280500132326</v>
+        <v>0.06671280500134813</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,19 +430,19 @@
         <v>0.8988536615087241</v>
       </c>
       <c r="H2">
-        <v>0.644808767372858</v>
+        <v>0.6448087673728651</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5054077457433195</v>
+        <v>0.5054077457433053</v>
       </c>
       <c r="K2">
-        <v>0.157285641044556</v>
+        <v>0.1572856410445453</v>
       </c>
       <c r="L2">
-        <v>0.5526752004274229</v>
+        <v>0.55267520042743</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06027975513103101</v>
+        <v>0.06027975513100614</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8342670324255295</v>
+        <v>0.8342670324255224</v>
       </c>
       <c r="H3">
         <v>0.6170091989701021</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4368585862206373</v>
+        <v>0.4368585862206302</v>
       </c>
       <c r="K3">
-        <v>0.1370306641207968</v>
+        <v>0.137030664120811</v>
       </c>
       <c r="L3">
-        <v>0.478072710585586</v>
+        <v>0.4780727105855718</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.415952816164435</v>
+        <v>1.415952816164321</v>
       </c>
       <c r="C4">
         <v>0.3428979097378431</v>
@@ -497,28 +497,28 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05645636617746419</v>
+        <v>0.05645636617744998</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7971434097438532</v>
+        <v>0.7971434097438461</v>
       </c>
       <c r="H4">
-        <v>0.6018136045896156</v>
+        <v>0.6018136045895943</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3951766692342886</v>
+        <v>0.3951766692343028</v>
       </c>
       <c r="K4">
-        <v>0.1248449647718743</v>
+        <v>0.1248449647718566</v>
       </c>
       <c r="L4">
-        <v>0.4328755733228817</v>
+        <v>0.4328755733228746</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355614645370707</v>
+        <v>1.355614645370622</v>
       </c>
       <c r="C5">
-        <v>0.3282187606840807</v>
+        <v>0.3282187606835976</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05492724172277619</v>
+        <v>0.05492724172273711</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7825979637578158</v>
+        <v>0.7825979637578229</v>
       </c>
       <c r="H5">
-        <v>0.5960564257781442</v>
+        <v>0.5960564257781371</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3782761048576333</v>
+        <v>0.3782761048576262</v>
       </c>
       <c r="K5">
-        <v>0.1199348684666504</v>
+        <v>0.119934868466629</v>
       </c>
       <c r="L5">
-        <v>0.4145892365516062</v>
+        <v>0.4145892365516133</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.345611226560436</v>
+        <v>1.345611226560578</v>
       </c>
       <c r="C6">
-        <v>0.3257860989962467</v>
+        <v>0.3257860989963604</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05467499929346076</v>
+        <v>0.05467499929345365</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.780216391579998</v>
+        <v>0.7802163915799909</v>
       </c>
       <c r="H6">
         <v>0.5951257315650835</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3754744417336511</v>
+        <v>0.3754744417336155</v>
       </c>
       <c r="K6">
-        <v>0.1191227068938119</v>
+        <v>0.1191227068938083</v>
       </c>
       <c r="L6">
-        <v>0.4115601769885799</v>
+        <v>0.4115601769885728</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415137988535037</v>
+        <v>1.415137988534809</v>
       </c>
       <c r="C7">
-        <v>0.3426996088932412</v>
+        <v>0.3426996088928718</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05643563035703281</v>
+        <v>0.05643563035704346</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0.7969449539723925</v>
       </c>
       <c r="H7">
-        <v>0.6017342449425485</v>
+        <v>0.6017342449425556</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3949484194234785</v>
+        <v>0.3949484194234856</v>
       </c>
       <c r="K7">
-        <v>0.124778529475698</v>
+        <v>0.1247785294756802</v>
       </c>
       <c r="L7">
-        <v>0.4326284504349829</v>
+        <v>0.4326284504349758</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.724609745966518</v>
+        <v>1.724609745966575</v>
       </c>
       <c r="C8">
-        <v>0.4181559500441097</v>
+        <v>0.4181559500440528</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06446662650775536</v>
+        <v>0.06446662650774826</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0.8760245850421811</v>
       </c>
       <c r="H8">
-        <v>0.634812147461048</v>
+        <v>0.6348121474610622</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0.1502449878149434</v>
       </c>
       <c r="L8">
-        <v>0.5268124781889156</v>
+        <v>0.5268124781889085</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.345204012793772</v>
+        <v>2.345204012793829</v>
       </c>
       <c r="C9">
-        <v>0.5703998598585827</v>
+        <v>0.570399859858469</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08136160536393433</v>
+        <v>0.08136160536393788</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
         <v>1.053874716968849</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6558500367653224</v>
+        <v>0.6558500367653366</v>
       </c>
       <c r="K9">
-        <v>0.2025444142106423</v>
+        <v>0.2025444142106281</v>
       </c>
       <c r="L9">
         <v>0.7174011005770637</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.813999557855425</v>
+        <v>2.813999557855198</v>
       </c>
       <c r="C10">
         <v>0.6862945055778766</v>
@@ -725,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09469221227185187</v>
+        <v>0.09469221227184477</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.202560321698499</v>
+        <v>1.202560321698485</v>
       </c>
       <c r="H10">
-        <v>0.7890752839408179</v>
+        <v>0.7890752839408037</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7876644066470178</v>
+        <v>0.787664406647032</v>
       </c>
       <c r="K10">
-        <v>0.2429782043980637</v>
+        <v>0.2429782043980282</v>
       </c>
       <c r="L10">
         <v>0.8626672603699674</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031196024991516</v>
+        <v>3.031196024991402</v>
       </c>
       <c r="C11">
-        <v>0.7402630115011561</v>
+        <v>0.7402630115011846</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1010112169510151</v>
+        <v>0.1010112169510187</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>1.275164027008984</v>
       </c>
       <c r="H11">
-        <v>0.8256644883319311</v>
+        <v>0.8256644883319382</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.2619537374053564</v>
       </c>
       <c r="L11">
-        <v>0.9303091135608526</v>
+        <v>0.9303091135608668</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.114116843152431</v>
+        <v>3.114116843152487</v>
       </c>
       <c r="C12">
-        <v>0.7609139095157502</v>
+        <v>0.7609139095160344</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1034459178689247</v>
+        <v>0.1034459178689602</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.303471222897784</v>
+        <v>1.30347122289777</v>
       </c>
       <c r="H12">
-        <v>0.8400878699960046</v>
+        <v>0.8400878699960117</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8721668062936345</v>
+        <v>0.8721668062936487</v>
       </c>
       <c r="K12">
-        <v>0.2692366849155476</v>
+        <v>0.2692366849155405</v>
       </c>
       <c r="L12">
-        <v>0.9561871724630464</v>
+        <v>0.9561871724630109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.096226578519577</v>
+        <v>3.09622657851952</v>
       </c>
       <c r="C13">
-        <v>0.7564562406791708</v>
+        <v>0.7564562406791993</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1029196119522631</v>
+        <v>0.1029196119522844</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>1.297336851886911</v>
+        <v>1.297336851886897</v>
       </c>
       <c r="H13">
         <v>0.836955147058525</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.867126931335136</v>
+        <v>0.8671269313350933</v>
       </c>
       <c r="K13">
-        <v>0.2676636084716151</v>
+        <v>0.2676636084716293</v>
       </c>
       <c r="L13">
-        <v>0.9506014706927104</v>
+        <v>0.9506014706927175</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>3.0380038198889</v>
       </c>
       <c r="C14">
-        <v>0.7419574652898007</v>
+        <v>0.7419574652897154</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1012106510499784</v>
+        <v>0.1012106510499535</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>1.277475953958429</v>
       </c>
       <c r="H14">
-        <v>0.8268393224749033</v>
+        <v>0.8268393224748962</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0.2625508753691577</v>
       </c>
       <c r="L14">
-        <v>0.9324325928840551</v>
+        <v>0.9324325928840622</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.002431764413984</v>
+        <v>3.00243176441387</v>
       </c>
       <c r="C15">
-        <v>0.7331055498411558</v>
+        <v>0.7331055498413832</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1001694749358073</v>
+        <v>0.1001694749357362</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.265419719578631</v>
+        <v>1.265419719578617</v>
       </c>
       <c r="H15">
-        <v>0.8207191280413184</v>
+        <v>0.8207191280413113</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0.8407093960157113</v>
       </c>
       <c r="K15">
-        <v>0.2594322859424452</v>
+        <v>0.2594322859424665</v>
       </c>
       <c r="L15">
-        <v>0.9213392007319641</v>
+        <v>0.9213392007319996</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,31 +947,31 @@
         <v>2.799893362160901</v>
       </c>
       <c r="C16">
-        <v>0.6827955165594801</v>
+        <v>0.6827955165592812</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09428480835173048</v>
+        <v>0.09428480835170205</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.197923673969399</v>
+        <v>1.197923673969385</v>
       </c>
       <c r="H16">
-        <v>0.7867597921117451</v>
+        <v>0.7867597921117522</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.783694871619133</v>
+        <v>0.7836948716191117</v>
       </c>
       <c r="K16">
-        <v>0.2417509489463114</v>
+        <v>0.2417509489463043</v>
       </c>
       <c r="L16">
         <v>0.8582813417190351</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.676723548591553</v>
+        <v>2.67672354859161</v>
       </c>
       <c r="C17">
-        <v>0.6522748776173444</v>
+        <v>0.6522748776174581</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09074353387806156</v>
+        <v>0.09074353387804734</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.157856147676739</v>
+        <v>1.157856147676711</v>
       </c>
       <c r="H17">
         <v>0.7668653990745256</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.749042974190651</v>
+        <v>0.7490429741906297</v>
       </c>
       <c r="K17">
         <v>0.2310622886008318</v>
       </c>
       <c r="L17">
-        <v>0.8200233454791999</v>
+        <v>0.8200233454792212</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.60624318545058</v>
+        <v>2.60624318545041</v>
       </c>
       <c r="C18">
-        <v>0.6348353049205002</v>
+        <v>0.6348353049204718</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08873033029773225</v>
+        <v>0.08873033029772515</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.135271150840722</v>
+        <v>1.135271150840737</v>
       </c>
       <c r="H18">
         <v>0.7557468825098468</v>
@@ -1047,10 +1047,10 @@
         <v>0.7292212722599913</v>
       </c>
       <c r="K18">
-        <v>0.2249683285279716</v>
+        <v>0.2249683285279787</v>
       </c>
       <c r="L18">
-        <v>0.7981625380634512</v>
+        <v>0.7981625380634298</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>2.582439153859696</v>
       </c>
       <c r="C19">
-        <v>0.6289493409739464</v>
+        <v>0.6289493409737474</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08805260653506508</v>
+        <v>0.08805260653506153</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
         <v>1.127700553700137</v>
       </c>
       <c r="H19">
-        <v>0.7520361467677361</v>
+        <v>0.7520361467677432</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7225278093915648</v>
+        <v>0.722527809391579</v>
       </c>
       <c r="K19">
-        <v>0.2229138818012402</v>
+        <v>0.2229138818012615</v>
       </c>
       <c r="L19">
-        <v>0.790784484815795</v>
+        <v>0.7907844848158021</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.689796815265481</v>
+        <v>2.689796815265595</v>
       </c>
       <c r="C20">
-        <v>0.6555117017437055</v>
+        <v>0.6555117017433645</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09111802586730278</v>
+        <v>0.09111802586729922</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.162073030717735</v>
+        <v>1.162073030717721</v>
       </c>
       <c r="H20">
-        <v>0.7689491843170444</v>
+        <v>0.7689491843170586</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.2321944452710483</v>
       </c>
       <c r="L20">
-        <v>0.8240807825352761</v>
+        <v>0.8240807825352974</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>3.055086068253615</v>
       </c>
       <c r="C21">
-        <v>0.7462099943724922</v>
+        <v>0.7462099943724354</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1017114346827199</v>
+        <v>0.1017114346827164</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1161,10 +1161,10 @@
         <v>0.8555384832836808</v>
       </c>
       <c r="K21">
-        <v>0.2640498507885809</v>
+        <v>0.2640498507886235</v>
       </c>
       <c r="L21">
-        <v>0.9377617429796601</v>
+        <v>0.9377617429796672</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.297807125079089</v>
+        <v>3.297807125078975</v>
       </c>
       <c r="C22">
-        <v>0.8067545516860548</v>
+        <v>0.8067545516859127</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0.1088815219595922</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.367305298147699</v>
+        <v>1.367305298147684</v>
       </c>
       <c r="H22">
-        <v>0.8729070072155665</v>
+        <v>0.8729070072155736</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0.9239337059239148</v>
       </c>
       <c r="K22">
-        <v>0.2854440467856207</v>
+        <v>0.2854440467856065</v>
       </c>
       <c r="L22">
-        <v>1.013616841593766</v>
+        <v>1.013616841593752</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>3.167859062176547</v>
       </c>
       <c r="C23">
-        <v>0.774312067730051</v>
+        <v>0.7743120677301363</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1050302644700878</v>
+        <v>0.1050302644700842</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.321987682367435</v>
+        <v>1.32198768236745</v>
       </c>
       <c r="H23">
-        <v>0.8495670057583311</v>
+        <v>0.8495670057583453</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0.887308563895985</v>
       </c>
       <c r="K23">
-        <v>0.2739680156112314</v>
+        <v>0.2739680156112527</v>
       </c>
       <c r="L23">
-        <v>0.9729747253785561</v>
+        <v>0.972974725378549</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.683885366437664</v>
+        <v>2.683885366437607</v>
       </c>
       <c r="C24">
-        <v>0.6540480023843429</v>
+        <v>0.6540480023843998</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09094864764825772</v>
+        <v>0.09094864764825417</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.16016518250953</v>
+        <v>1.160165182509544</v>
       </c>
       <c r="H24">
-        <v>0.7680061161621765</v>
+        <v>0.7680061161621907</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7510574217158847</v>
+        <v>0.7510574217158918</v>
       </c>
       <c r="K24">
-        <v>0.2316824391061019</v>
+        <v>0.2316824391061232</v>
       </c>
       <c r="L24">
-        <v>0.8222460000727239</v>
+        <v>0.822246000072731</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.175413822175699</v>
+        <v>2.175413822175642</v>
       </c>
       <c r="C25">
         <v>0.5286175490963387</v>
@@ -1298,25 +1298,25 @@
         <v>0.07664705452715026</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
         <v>1.002922445885289</v>
       </c>
       <c r="H25">
-        <v>0.6922211410705472</v>
+        <v>0.6922211410705614</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6081618788987413</v>
+        <v>0.6081618788987555</v>
       </c>
       <c r="K25">
         <v>0.1880880381587673</v>
       </c>
       <c r="L25">
-        <v>0.6650511064275335</v>
+        <v>0.6650511064275406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>1.809239436019823</v>
       </c>
       <c r="C2">
-        <v>0.4388421542942638</v>
+        <v>0.4388421542942353</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06671280500134813</v>
+        <v>0.06671280500132326</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -430,19 +430,19 @@
         <v>0.8988536615087241</v>
       </c>
       <c r="H2">
-        <v>0.6448087673728651</v>
+        <v>0.644808767372858</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5054077457433053</v>
+        <v>0.5054077457433195</v>
       </c>
       <c r="K2">
-        <v>0.1572856410445453</v>
+        <v>0.157285641044556</v>
       </c>
       <c r="L2">
-        <v>0.55267520042743</v>
+        <v>0.5526752004274229</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -459,13 +459,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06027975513100614</v>
+        <v>0.06027975513103101</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8342670324255224</v>
+        <v>0.8342670324255295</v>
       </c>
       <c r="H3">
         <v>0.6170091989701021</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4368585862206302</v>
+        <v>0.4368585862206373</v>
       </c>
       <c r="K3">
-        <v>0.137030664120811</v>
+        <v>0.1370306641207968</v>
       </c>
       <c r="L3">
-        <v>0.4780727105855718</v>
+        <v>0.478072710585586</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.415952816164321</v>
+        <v>1.415952816164435</v>
       </c>
       <c r="C4">
         <v>0.3428979097378431</v>
@@ -497,28 +497,28 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05645636617744998</v>
+        <v>0.05645636617746419</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7971434097438461</v>
+        <v>0.7971434097438532</v>
       </c>
       <c r="H4">
-        <v>0.6018136045895943</v>
+        <v>0.6018136045896156</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3951766692343028</v>
+        <v>0.3951766692342886</v>
       </c>
       <c r="K4">
-        <v>0.1248449647718566</v>
+        <v>0.1248449647718743</v>
       </c>
       <c r="L4">
-        <v>0.4328755733228746</v>
+        <v>0.4328755733228817</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355614645370622</v>
+        <v>1.355614645370707</v>
       </c>
       <c r="C5">
-        <v>0.3282187606835976</v>
+        <v>0.3282187606840807</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05492724172273711</v>
+        <v>0.05492724172277619</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7825979637578229</v>
+        <v>0.7825979637578158</v>
       </c>
       <c r="H5">
-        <v>0.5960564257781371</v>
+        <v>0.5960564257781442</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3782761048576262</v>
+        <v>0.3782761048576333</v>
       </c>
       <c r="K5">
-        <v>0.119934868466629</v>
+        <v>0.1199348684666504</v>
       </c>
       <c r="L5">
-        <v>0.4145892365516133</v>
+        <v>0.4145892365516062</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.345611226560578</v>
+        <v>1.345611226560436</v>
       </c>
       <c r="C6">
-        <v>0.3257860989963604</v>
+        <v>0.3257860989962467</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05467499929345365</v>
+        <v>0.05467499929346076</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7802163915799909</v>
+        <v>0.780216391579998</v>
       </c>
       <c r="H6">
         <v>0.5951257315650835</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3754744417336155</v>
+        <v>0.3754744417336511</v>
       </c>
       <c r="K6">
-        <v>0.1191227068938083</v>
+        <v>0.1191227068938119</v>
       </c>
       <c r="L6">
-        <v>0.4115601769885728</v>
+        <v>0.4115601769885799</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415137988534809</v>
+        <v>1.415137988535037</v>
       </c>
       <c r="C7">
-        <v>0.3426996088928718</v>
+        <v>0.3426996088932412</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05643563035704346</v>
+        <v>0.05643563035703281</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0.7969449539723925</v>
       </c>
       <c r="H7">
-        <v>0.6017342449425556</v>
+        <v>0.6017342449425485</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3949484194234856</v>
+        <v>0.3949484194234785</v>
       </c>
       <c r="K7">
-        <v>0.1247785294756802</v>
+        <v>0.124778529475698</v>
       </c>
       <c r="L7">
-        <v>0.4326284504349758</v>
+        <v>0.4326284504349829</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.724609745966575</v>
+        <v>1.724609745966518</v>
       </c>
       <c r="C8">
-        <v>0.4181559500440528</v>
+        <v>0.4181559500441097</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06446662650774826</v>
+        <v>0.06446662650775536</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,7 +658,7 @@
         <v>0.8760245850421811</v>
       </c>
       <c r="H8">
-        <v>0.6348121474610622</v>
+        <v>0.634812147461048</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0.1502449878149434</v>
       </c>
       <c r="L8">
-        <v>0.5268124781889085</v>
+        <v>0.5268124781889156</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.345204012793829</v>
+        <v>2.345204012793772</v>
       </c>
       <c r="C9">
-        <v>0.570399859858469</v>
+        <v>0.5703998598585827</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08136160536393788</v>
+        <v>0.08136160536393433</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
         <v>1.053874716968849</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6558500367653366</v>
+        <v>0.6558500367653224</v>
       </c>
       <c r="K9">
-        <v>0.2025444142106281</v>
+        <v>0.2025444142106423</v>
       </c>
       <c r="L9">
         <v>0.7174011005770637</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.813999557855198</v>
+        <v>2.813999557855425</v>
       </c>
       <c r="C10">
         <v>0.6862945055778766</v>
@@ -725,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09469221227184477</v>
+        <v>0.09469221227185187</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.202560321698485</v>
+        <v>1.202560321698499</v>
       </c>
       <c r="H10">
-        <v>0.7890752839408037</v>
+        <v>0.7890752839408179</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.787664406647032</v>
+        <v>0.7876644066470178</v>
       </c>
       <c r="K10">
-        <v>0.2429782043980282</v>
+        <v>0.2429782043980637</v>
       </c>
       <c r="L10">
         <v>0.8626672603699674</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031196024991402</v>
+        <v>3.031196024991516</v>
       </c>
       <c r="C11">
-        <v>0.7402630115011846</v>
+        <v>0.7402630115011561</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1010112169510187</v>
+        <v>0.1010112169510151</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,7 +772,7 @@
         <v>1.275164027008984</v>
       </c>
       <c r="H11">
-        <v>0.8256644883319382</v>
+        <v>0.8256644883319311</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.2619537374053564</v>
       </c>
       <c r="L11">
-        <v>0.9303091135608668</v>
+        <v>0.9303091135608526</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.114116843152487</v>
+        <v>3.114116843152431</v>
       </c>
       <c r="C12">
-        <v>0.7609139095160344</v>
+        <v>0.7609139095157502</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1034459178689602</v>
+        <v>0.1034459178689247</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.30347122289777</v>
+        <v>1.303471222897784</v>
       </c>
       <c r="H12">
-        <v>0.8400878699960117</v>
+        <v>0.8400878699960046</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8721668062936487</v>
+        <v>0.8721668062936345</v>
       </c>
       <c r="K12">
-        <v>0.2692366849155405</v>
+        <v>0.2692366849155476</v>
       </c>
       <c r="L12">
-        <v>0.9561871724630109</v>
+        <v>0.9561871724630464</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.09622657851952</v>
+        <v>3.096226578519577</v>
       </c>
       <c r="C13">
-        <v>0.7564562406791993</v>
+        <v>0.7564562406791708</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1029196119522844</v>
+        <v>0.1029196119522631</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.297336851886897</v>
+        <v>1.297336851886911</v>
       </c>
       <c r="H13">
         <v>0.836955147058525</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8671269313350933</v>
+        <v>0.867126931335136</v>
       </c>
       <c r="K13">
-        <v>0.2676636084716293</v>
+        <v>0.2676636084716151</v>
       </c>
       <c r="L13">
-        <v>0.9506014706927175</v>
+        <v>0.9506014706927104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>3.0380038198889</v>
       </c>
       <c r="C14">
-        <v>0.7419574652897154</v>
+        <v>0.7419574652898007</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1012106510499535</v>
+        <v>0.1012106510499784</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,7 +886,7 @@
         <v>1.277475953958429</v>
       </c>
       <c r="H14">
-        <v>0.8268393224748962</v>
+        <v>0.8268393224749033</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0.2625508753691577</v>
       </c>
       <c r="L14">
-        <v>0.9324325928840622</v>
+        <v>0.9324325928840551</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.00243176441387</v>
+        <v>3.002431764413984</v>
       </c>
       <c r="C15">
-        <v>0.7331055498413832</v>
+        <v>0.7331055498411558</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1001694749357362</v>
+        <v>0.1001694749358073</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.265419719578617</v>
+        <v>1.265419719578631</v>
       </c>
       <c r="H15">
-        <v>0.8207191280413113</v>
+        <v>0.8207191280413184</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0.8407093960157113</v>
       </c>
       <c r="K15">
-        <v>0.2594322859424665</v>
+        <v>0.2594322859424452</v>
       </c>
       <c r="L15">
-        <v>0.9213392007319996</v>
+        <v>0.9213392007319641</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,31 +947,31 @@
         <v>2.799893362160901</v>
       </c>
       <c r="C16">
-        <v>0.6827955165592812</v>
+        <v>0.6827955165594801</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09428480835170205</v>
+        <v>0.09428480835173048</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.197923673969385</v>
+        <v>1.197923673969399</v>
       </c>
       <c r="H16">
-        <v>0.7867597921117522</v>
+        <v>0.7867597921117451</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7836948716191117</v>
+        <v>0.783694871619133</v>
       </c>
       <c r="K16">
-        <v>0.2417509489463043</v>
+        <v>0.2417509489463114</v>
       </c>
       <c r="L16">
         <v>0.8582813417190351</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.67672354859161</v>
+        <v>2.676723548591553</v>
       </c>
       <c r="C17">
-        <v>0.6522748776174581</v>
+        <v>0.6522748776173444</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09074353387804734</v>
+        <v>0.09074353387806156</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.157856147676711</v>
+        <v>1.157856147676739</v>
       </c>
       <c r="H17">
         <v>0.7668653990745256</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7490429741906297</v>
+        <v>0.749042974190651</v>
       </c>
       <c r="K17">
         <v>0.2310622886008318</v>
       </c>
       <c r="L17">
-        <v>0.8200233454792212</v>
+        <v>0.8200233454791999</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.60624318545041</v>
+        <v>2.60624318545058</v>
       </c>
       <c r="C18">
-        <v>0.6348353049204718</v>
+        <v>0.6348353049205002</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08873033029772515</v>
+        <v>0.08873033029773225</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.135271150840737</v>
+        <v>1.135271150840722</v>
       </c>
       <c r="H18">
         <v>0.7557468825098468</v>
@@ -1047,10 +1047,10 @@
         <v>0.7292212722599913</v>
       </c>
       <c r="K18">
-        <v>0.2249683285279787</v>
+        <v>0.2249683285279716</v>
       </c>
       <c r="L18">
-        <v>0.7981625380634298</v>
+        <v>0.7981625380634512</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>2.582439153859696</v>
       </c>
       <c r="C19">
-        <v>0.6289493409737474</v>
+        <v>0.6289493409739464</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08805260653506153</v>
+        <v>0.08805260653506508</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>1.127700553700137</v>
       </c>
       <c r="H19">
-        <v>0.7520361467677432</v>
+        <v>0.7520361467677361</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.722527809391579</v>
+        <v>0.7225278093915648</v>
       </c>
       <c r="K19">
-        <v>0.2229138818012615</v>
+        <v>0.2229138818012402</v>
       </c>
       <c r="L19">
-        <v>0.7907844848158021</v>
+        <v>0.790784484815795</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.689796815265595</v>
+        <v>2.689796815265481</v>
       </c>
       <c r="C20">
-        <v>0.6555117017433645</v>
+        <v>0.6555117017437055</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09111802586729922</v>
+        <v>0.09111802586730278</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.162073030717721</v>
+        <v>1.162073030717735</v>
       </c>
       <c r="H20">
-        <v>0.7689491843170586</v>
+        <v>0.7689491843170444</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.2321944452710483</v>
       </c>
       <c r="L20">
-        <v>0.8240807825352974</v>
+        <v>0.8240807825352761</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>3.055086068253615</v>
       </c>
       <c r="C21">
-        <v>0.7462099943724354</v>
+        <v>0.7462099943724922</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1017114346827164</v>
+        <v>0.1017114346827199</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1161,10 +1161,10 @@
         <v>0.8555384832836808</v>
       </c>
       <c r="K21">
-        <v>0.2640498507886235</v>
+        <v>0.2640498507885809</v>
       </c>
       <c r="L21">
-        <v>0.9377617429796672</v>
+        <v>0.9377617429796601</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.297807125078975</v>
+        <v>3.297807125079089</v>
       </c>
       <c r="C22">
-        <v>0.8067545516859127</v>
+        <v>0.8067545516860548</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0.1088815219595922</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.367305298147684</v>
+        <v>1.367305298147699</v>
       </c>
       <c r="H22">
-        <v>0.8729070072155736</v>
+        <v>0.8729070072155665</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0.9239337059239148</v>
       </c>
       <c r="K22">
-        <v>0.2854440467856065</v>
+        <v>0.2854440467856207</v>
       </c>
       <c r="L22">
-        <v>1.013616841593752</v>
+        <v>1.013616841593766</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,22 +1213,22 @@
         <v>3.167859062176547</v>
       </c>
       <c r="C23">
-        <v>0.7743120677301363</v>
+        <v>0.774312067730051</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1050302644700842</v>
+        <v>0.1050302644700878</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.32198768236745</v>
+        <v>1.321987682367435</v>
       </c>
       <c r="H23">
-        <v>0.8495670057583453</v>
+        <v>0.8495670057583311</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0.887308563895985</v>
       </c>
       <c r="K23">
-        <v>0.2739680156112527</v>
+        <v>0.2739680156112314</v>
       </c>
       <c r="L23">
-        <v>0.972974725378549</v>
+        <v>0.9729747253785561</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.683885366437607</v>
+        <v>2.683885366437664</v>
       </c>
       <c r="C24">
-        <v>0.6540480023843998</v>
+        <v>0.6540480023843429</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09094864764825417</v>
+        <v>0.09094864764825772</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.160165182509544</v>
+        <v>1.16016518250953</v>
       </c>
       <c r="H24">
-        <v>0.7680061161621907</v>
+        <v>0.7680061161621765</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7510574217158918</v>
+        <v>0.7510574217158847</v>
       </c>
       <c r="K24">
-        <v>0.2316824391061232</v>
+        <v>0.2316824391061019</v>
       </c>
       <c r="L24">
-        <v>0.822246000072731</v>
+        <v>0.8222460000727239</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.175413822175642</v>
+        <v>2.175413822175699</v>
       </c>
       <c r="C25">
         <v>0.5286175490963387</v>
@@ -1298,25 +1298,25 @@
         <v>0.07664705452715026</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
         <v>1.002922445885289</v>
       </c>
       <c r="H25">
-        <v>0.6922211410705614</v>
+        <v>0.6922211410705472</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6081618788987555</v>
+        <v>0.6081618788987413</v>
       </c>
       <c r="K25">
         <v>0.1880880381587673</v>
       </c>
       <c r="L25">
-        <v>0.6650511064275406</v>
+        <v>0.6650511064275335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.809239436019823</v>
+        <v>1.809315026658595</v>
       </c>
       <c r="C2">
-        <v>0.4388421542942353</v>
+        <v>0.438518900605203</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06671280500132326</v>
+        <v>0.06673642661197476</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8988536615087241</v>
+        <v>0.2749476102644621</v>
       </c>
       <c r="H2">
-        <v>0.644808767372858</v>
+        <v>0.6257231026746553</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6431823606014575</v>
       </c>
       <c r="J2">
-        <v>0.5054077457433195</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.157285641044556</v>
+        <v>0.505322031677963</v>
       </c>
       <c r="L2">
-        <v>0.5526752004274229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1572561162729826</v>
+      </c>
+      <c r="M2">
+        <v>0.5526464760398113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.564721230015664</v>
+        <v>1.564806965727115</v>
       </c>
       <c r="C3">
-        <v>0.379135368853099</v>
+        <v>0.3788628656205617</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06027975513103101</v>
+        <v>0.06030239338693377</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8342670324255295</v>
+        <v>0.2508979136079219</v>
       </c>
       <c r="H3">
-        <v>0.6170091989701021</v>
+        <v>0.5854857365543111</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6155342854466355</v>
       </c>
       <c r="J3">
-        <v>0.4368585862206373</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1370306641207968</v>
+        <v>0.4367901540947869</v>
       </c>
       <c r="L3">
-        <v>0.478072710585586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1370052277874585</v>
+      </c>
+      <c r="M3">
+        <v>0.4780506144430987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.415952816164435</v>
+        <v>1.416041894411308</v>
       </c>
       <c r="C4">
-        <v>0.3428979097378431</v>
+        <v>0.3426554917679994</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05645636617746419</v>
+        <v>0.0564784912361489</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7971434097438532</v>
+        <v>0.2369399204675275</v>
       </c>
       <c r="H4">
-        <v>0.6018136045896156</v>
+        <v>0.5624996378180143</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6004299364444989</v>
       </c>
       <c r="J4">
-        <v>0.3951766692342886</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1248449647718743</v>
+        <v>0.3951179369555859</v>
       </c>
       <c r="L4">
-        <v>0.4328755733228817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1248218937532748</v>
+      </c>
+      <c r="M4">
+        <v>0.4328567499975122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355614645370707</v>
+        <v>1.355704443438498</v>
       </c>
       <c r="C5">
-        <v>0.3282187606840807</v>
+        <v>0.3279883724247838</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05492724172277619</v>
+        <v>0.05494917995682869</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7825979637578158</v>
+        <v>0.2314367721272177</v>
       </c>
       <c r="H5">
-        <v>0.5960564257781442</v>
+        <v>0.5535295491170373</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5947095647963181</v>
       </c>
       <c r="J5">
-        <v>0.3782761048576333</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1199348684666504</v>
+        <v>0.3782211250780136</v>
       </c>
       <c r="L5">
-        <v>0.4145892365516062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1199127309672363</v>
+      </c>
+      <c r="M5">
+        <v>0.4145715712645099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.345611226560436</v>
+        <v>1.345701107649575</v>
       </c>
       <c r="C6">
-        <v>0.3257860989962467</v>
+        <v>0.3255576954572632</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05467499929346076</v>
+        <v>0.05469690783780834</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.780216391579998</v>
+        <v>0.2305336283428545</v>
       </c>
       <c r="H6">
-        <v>0.5951257315650835</v>
+        <v>0.5520630578117363</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5937849615799067</v>
       </c>
       <c r="J6">
-        <v>0.3754744417336511</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1191227068938119</v>
+        <v>0.3754200737499929</v>
       </c>
       <c r="L6">
-        <v>0.4115601769885799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1191007227353111</v>
+      </c>
+      <c r="M6">
+        <v>0.4115426940578573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415137988535037</v>
+        <v>1.415227078985652</v>
       </c>
       <c r="C7">
-        <v>0.3426996088932412</v>
+        <v>0.3424573540423523</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05643563035703281</v>
+        <v>0.05645775280649445</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7969449539723925</v>
+        <v>0.2368649780784153</v>
       </c>
       <c r="H7">
-        <v>0.6017342449425485</v>
+        <v>0.562377101926181</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6003510746272909</v>
       </c>
       <c r="J7">
-        <v>0.3949484194234785</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.124778529475698</v>
+        <v>0.3948897385269703</v>
       </c>
       <c r="L7">
-        <v>0.4326284504349829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1247554711622172</v>
+      </c>
+      <c r="M7">
+        <v>0.4326096434077513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.724609745966518</v>
+        <v>1.724689486717324</v>
       </c>
       <c r="C8">
-        <v>0.4181559500441097</v>
+        <v>0.4178504438431503</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06446662650775536</v>
+        <v>0.06448988999398253</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8760245850421811</v>
+        <v>0.2664758712212105</v>
       </c>
       <c r="H8">
-        <v>0.634812147461048</v>
+        <v>0.6114700682997665</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6332383873885874</v>
       </c>
       <c r="J8">
-        <v>0.4816765223847028</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1502449878149434</v>
+        <v>0.4815969745882285</v>
       </c>
       <c r="L8">
-        <v>0.5268124781889156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1502169067372954</v>
+      </c>
+      <c r="M8">
+        <v>0.5267862203649614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.345204012793772</v>
+        <v>2.345238254823357</v>
       </c>
       <c r="C9">
-        <v>0.5703998598585827</v>
+        <v>0.569959737686986</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08136160536393433</v>
+        <v>0.08138784194068194</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.053874716968849</v>
+        <v>0.3318727886278339</v>
       </c>
       <c r="H9">
-        <v>0.7163167503339594</v>
+        <v>0.7231435760601954</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7143516433688646</v>
       </c>
       <c r="J9">
-        <v>0.6558500367653224</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2025444142106423</v>
+        <v>0.6557208665821861</v>
       </c>
       <c r="L9">
-        <v>0.7174011005770637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2025050139634317</v>
+      </c>
+      <c r="M9">
+        <v>0.7173526363060958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.813999557855425</v>
+        <v>2.81397697497556</v>
       </c>
       <c r="C10">
-        <v>0.6862945055778766</v>
+        <v>0.6857457652297114</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09469221227185187</v>
+        <v>0.09472109475203894</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.202560321698499</v>
+        <v>0.3857994125024078</v>
       </c>
       <c r="H10">
-        <v>0.7890752839408179</v>
+        <v>0.8172911531108156</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7868062673324516</v>
       </c>
       <c r="J10">
-        <v>0.7876644066470178</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2429782043980637</v>
+        <v>0.7874911169822241</v>
       </c>
       <c r="L10">
-        <v>0.8626672603699674</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2429290652658338</v>
+      </c>
+      <c r="M10">
+        <v>0.8625957898858019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031196024991516</v>
+        <v>3.031140671816445</v>
       </c>
       <c r="C11">
-        <v>0.7402630115011561</v>
+        <v>0.7396618784424334</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1010112169510151</v>
+        <v>0.1010414020011901</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.275164027008984</v>
+        <v>0.4119669416944873</v>
       </c>
       <c r="H11">
-        <v>0.8256644883319311</v>
+        <v>0.8634375507302394</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8232521534579291</v>
       </c>
       <c r="J11">
-        <v>0.8488099492085439</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2619537374053564</v>
+        <v>0.8486142935175565</v>
       </c>
       <c r="L11">
-        <v>0.9303091135608526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2618997122388649</v>
+      </c>
+      <c r="M11">
+        <v>0.9302251633889469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.114116843152431</v>
+        <v>3.114047900989647</v>
       </c>
       <c r="C12">
-        <v>0.7609139095157502</v>
+        <v>0.7602924215455289</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1034459178689247</v>
+        <v>0.1034766098524926</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.303471222897784</v>
+        <v>0.4221452564945309</v>
       </c>
       <c r="H12">
-        <v>0.8400878699960046</v>
+        <v>0.8814547060667337</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8376203866860052</v>
       </c>
       <c r="J12">
-        <v>0.8721668062936345</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2692366849155476</v>
+        <v>0.8719622879455073</v>
       </c>
       <c r="L12">
-        <v>0.9561871724630464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2691807288881236</v>
+      </c>
+      <c r="M12">
+        <v>0.9560981501561372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.096226578519577</v>
+        <v>3.096160618716283</v>
       </c>
       <c r="C13">
-        <v>0.7564562406791708</v>
+        <v>0.7558391609236992</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1029196119522631</v>
+        <v>0.1029501941635829</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.297336851886911</v>
+        <v>0.4199406140342461</v>
       </c>
       <c r="H13">
-        <v>0.836955147058525</v>
+        <v>0.877549133858011</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8344995825607455</v>
       </c>
       <c r="J13">
-        <v>0.867126931335136</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2676636084716151</v>
+        <v>0.8669243403163449</v>
       </c>
       <c r="L13">
-        <v>0.9506014706927104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2676080721462029</v>
+      </c>
+      <c r="M13">
+        <v>0.9505135571737213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.0380038198889</v>
+        <v>3.037947373545364</v>
       </c>
       <c r="C14">
-        <v>0.7419574652898007</v>
+        <v>0.7413546684822734</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1012106510499784</v>
+        <v>0.1012408775363269</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.277475953958429</v>
+        <v>0.4127987123754764</v>
       </c>
       <c r="H14">
-        <v>0.8268393224749033</v>
+        <v>0.8649085571829005</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8244224690118216</v>
       </c>
       <c r="J14">
-        <v>0.8507272768111136</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2625508753691577</v>
+        <v>0.8505309002601251</v>
       </c>
       <c r="L14">
-        <v>0.9324325928840551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2624966930619124</v>
+      </c>
+      <c r="M14">
+        <v>0.932348232725758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.002431764413984</v>
+        <v>3.002380985731861</v>
       </c>
       <c r="C15">
-        <v>0.7331055498411558</v>
+        <v>0.7325114319049533</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1001694749358073</v>
+        <v>0.1001994852883534</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.265419719578631</v>
+        <v>0.4084602333130789</v>
       </c>
       <c r="H15">
-        <v>0.8207191280413184</v>
+        <v>0.8572385663647424</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8183258672143694</v>
       </c>
       <c r="J15">
-        <v>0.8407093960157113</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2594322859424452</v>
+        <v>0.8405167727660796</v>
       </c>
       <c r="L15">
-        <v>0.9213392007319641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2593789220150029</v>
+      </c>
+      <c r="M15">
+        <v>0.9212569701552979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.799893362160901</v>
+        <v>2.799872766544013</v>
       </c>
       <c r="C16">
-        <v>0.6827955165594801</v>
+        <v>0.682250133132527</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09428480835173048</v>
+        <v>0.09431360765896812</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.197923673969399</v>
+        <v>0.3841250367859601</v>
       </c>
       <c r="H16">
-        <v>0.7867597921117451</v>
+        <v>0.8143475582685937</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7845000275536478</v>
       </c>
       <c r="J16">
-        <v>0.783694871619133</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2417509489463114</v>
+        <v>0.7835229922688143</v>
       </c>
       <c r="L16">
-        <v>0.8582813417190351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2417021187290445</v>
+      </c>
+      <c r="M16">
+        <v>0.8582106416498192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.676723548591553</v>
+        <v>2.676719574676667</v>
       </c>
       <c r="C17">
-        <v>0.6522748776173444</v>
+        <v>0.651758570303258</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09074353387806156</v>
+        <v>0.09077161532020739</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.157856147676739</v>
+        <v>0.3696381343009563</v>
       </c>
       <c r="H17">
-        <v>0.7668653990745256</v>
+        <v>0.7889292776102934</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7646861336084498</v>
       </c>
       <c r="J17">
-        <v>0.749042974190651</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2310622886008318</v>
+        <v>0.7488831907590807</v>
       </c>
       <c r="L17">
-        <v>0.8200233454791999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.231016113039523</v>
+      </c>
+      <c r="M17">
+        <v>0.8199591657086813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.60624318545058</v>
+        <v>2.606248133165877</v>
       </c>
       <c r="C18">
-        <v>0.6348353049205002</v>
+        <v>0.6343354466376354</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08873033029773225</v>
+        <v>0.08875800820867852</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.135271150840722</v>
+        <v>0.3614573834444741</v>
       </c>
       <c r="H18">
-        <v>0.7557468825098468</v>
+        <v>0.7746173322872494</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7536134510405859</v>
       </c>
       <c r="J18">
-        <v>0.7292212722599913</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2249683285279716</v>
+        <v>0.7290682342937558</v>
       </c>
       <c r="L18">
-        <v>0.7981625380634512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2249236380061248</v>
+      </c>
+      <c r="M18">
+        <v>0.798101922934535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.582439153859696</v>
+        <v>2.582447017730885</v>
       </c>
       <c r="C19">
-        <v>0.6289493409739464</v>
+        <v>0.6284550072702473</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08805260653506508</v>
+        <v>0.08808014943624087</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.127700553700137</v>
+        <v>0.3587126116922974</v>
       </c>
       <c r="H19">
-        <v>0.7520361467677361</v>
+        <v>0.7698225826735836</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7499181578546512</v>
       </c>
       <c r="J19">
-        <v>0.7225278093915648</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2229138818012402</v>
+        <v>0.722377020709942</v>
       </c>
       <c r="L19">
-        <v>0.790784484815795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2228696873167735</v>
+      </c>
+      <c r="M19">
+        <v>0.7907250463025974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.689796815265481</v>
+        <v>2.689791139290833</v>
       </c>
       <c r="C20">
-        <v>0.6555117017437055</v>
+        <v>0.6549923282480563</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09111802586730278</v>
+        <v>0.09114618276079156</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.162073030717735</v>
+        <v>0.3711643528318973</v>
       </c>
       <c r="H20">
-        <v>0.7689491843170444</v>
+        <v>0.7916027738148586</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7667613989141771</v>
       </c>
       <c r="J20">
-        <v>0.7527202091479808</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2321944452710483</v>
+        <v>0.7525591604291719</v>
       </c>
       <c r="L20">
-        <v>0.8240807825352761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2321479915488567</v>
+      </c>
+      <c r="M20">
+        <v>0.8240159282639468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.055086068253615</v>
+        <v>3.055026861211445</v>
       </c>
       <c r="C21">
-        <v>0.7462099943724922</v>
+        <v>0.7456030170463634</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1017114346827199</v>
+        <v>0.1017417652893577</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.283286641284803</v>
+        <v>0.4148888634767616</v>
       </c>
       <c r="H21">
-        <v>0.829794609670941</v>
+        <v>0.8686061165259389</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8273664109338199</v>
       </c>
       <c r="J21">
-        <v>0.8555384832836808</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2640498507885809</v>
+        <v>0.8553402926150113</v>
       </c>
       <c r="L21">
-        <v>0.9377617429796601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2639952730958512</v>
+      </c>
+      <c r="M21">
+        <v>0.9376763490138202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.297807125079089</v>
+        <v>3.29770594811248</v>
       </c>
       <c r="C22">
-        <v>0.8067545516860548</v>
+        <v>0.8060872684676212</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1088815219595922</v>
+        <v>0.1089133523589325</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.367305298147699</v>
+        <v>0.4450535784312848</v>
       </c>
       <c r="H22">
-        <v>0.8729070072155665</v>
+        <v>0.9221307888405903</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8703164867661712</v>
       </c>
       <c r="J22">
-        <v>0.9239337059239148</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2854440467856207</v>
+        <v>0.9237089124005422</v>
       </c>
       <c r="L22">
-        <v>1.013616841593766</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.285383680503017</v>
+      </c>
+      <c r="M22">
+        <v>1.013515971187608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.167859062176547</v>
+        <v>3.167780993606812</v>
       </c>
       <c r="C23">
-        <v>0.774312067730051</v>
+        <v>0.7736772822914872</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1050302644700878</v>
+        <v>0.1050612874572678</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.321987682367435</v>
+        <v>0.4287964363023633</v>
       </c>
       <c r="H23">
-        <v>0.8495670057583311</v>
+        <v>0.8932472498768931</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8470636502751034</v>
       </c>
       <c r="J23">
-        <v>0.887308563895985</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2739680156112314</v>
+        <v>0.8870982054495045</v>
       </c>
       <c r="L23">
-        <v>0.9729747253785561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2739107883987018</v>
+      </c>
+      <c r="M23">
+        <v>0.9728823242511098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.683885366437664</v>
+        <v>2.683880461926663</v>
       </c>
       <c r="C24">
-        <v>0.6540480023843429</v>
+        <v>0.6535300159353028</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09094864764825772</v>
+        <v>0.09097677040155716</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.16016518250953</v>
+        <v>0.370473891079854</v>
       </c>
       <c r="H24">
-        <v>0.7680061161621765</v>
+        <v>0.7903931523424319</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7658221840010171</v>
       </c>
       <c r="J24">
-        <v>0.7510574217158847</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2316824391061019</v>
+        <v>0.7508969456786687</v>
       </c>
       <c r="L24">
-        <v>0.8222460000727239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2316361112675267</v>
+      </c>
+      <c r="M24">
+        <v>0.8221814513120762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.175413822175699</v>
+        <v>2.175463928787337</v>
       </c>
       <c r="C25">
-        <v>0.5286175490963387</v>
+        <v>0.5282152875324186</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07664705452715026</v>
+        <v>0.07667240609727344</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.002922445885289</v>
+        <v>0.3132596563837211</v>
       </c>
       <c r="H25">
-        <v>0.6922211410705472</v>
+        <v>0.6910211449061876</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.69036432689321</v>
       </c>
       <c r="J25">
-        <v>0.6081618788987413</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1880880381587673</v>
+        <v>0.6080472882417354</v>
       </c>
       <c r="L25">
-        <v>0.6650511064275335</v>
+        <v>0.1880519065717365</v>
+      </c>
+      <c r="M25">
+        <v>0.6650096570700299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.809315026658595</v>
+        <v>2.098799399691245</v>
       </c>
       <c r="C2">
-        <v>0.438518900605203</v>
+        <v>0.4453419099424138</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06673642661197476</v>
+        <v>0.1515860520632444</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.029666720770081</v>
       </c>
       <c r="G2">
-        <v>0.2749476102644621</v>
+        <v>0.0007974077514062898</v>
       </c>
       <c r="H2">
-        <v>0.6257231026746553</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6431823606014575</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0364151600599687</v>
       </c>
       <c r="K2">
-        <v>0.505322031677963</v>
+        <v>0.5661916243609184</v>
       </c>
       <c r="L2">
-        <v>0.1572561162729826</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5526464760398113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7410944331706233</v>
+      </c>
+      <c r="N2">
+        <v>0.8468759927477691</v>
+      </c>
+      <c r="O2">
+        <v>0.9431038369531421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.564806965727115</v>
+        <v>1.815663640900851</v>
       </c>
       <c r="C3">
-        <v>0.3788628656205617</v>
+        <v>0.3845304350916763</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06030239338693377</v>
+        <v>0.1379755747578102</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.857228952415994</v>
       </c>
       <c r="G3">
-        <v>0.2508979136079219</v>
+        <v>0.0008041935972011001</v>
       </c>
       <c r="H3">
-        <v>0.5854857365543111</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6155342854466355</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03746450954140812</v>
       </c>
       <c r="K3">
-        <v>0.4367901540947869</v>
+        <v>0.4892299182706239</v>
       </c>
       <c r="L3">
-        <v>0.1370052277874585</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4780506144430987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6459770569163652</v>
+      </c>
+      <c r="N3">
+        <v>0.8968307641068094</v>
+      </c>
+      <c r="O3">
+        <v>0.8734870925438045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.416041894411308</v>
+        <v>1.643963058460713</v>
       </c>
       <c r="C4">
-        <v>0.3426554917679994</v>
+        <v>0.347600071514421</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0564784912361489</v>
+        <v>0.1297492994583251</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.755107769796808</v>
       </c>
       <c r="G4">
-        <v>0.2369399204675275</v>
+        <v>0.0008084764714984874</v>
       </c>
       <c r="H4">
-        <v>0.5624996378180143</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6004299364444989</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03819974375121582</v>
       </c>
       <c r="K4">
-        <v>0.3951179369555859</v>
+        <v>0.442539564594675</v>
       </c>
       <c r="L4">
-        <v>0.1248218937532748</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4328567499975122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5883189063375269</v>
+      </c>
+      <c r="N4">
+        <v>0.9290998308655638</v>
+      </c>
+      <c r="O4">
+        <v>0.8330238328310102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.355704443438498</v>
+        <v>1.574458705770041</v>
       </c>
       <c r="C5">
-        <v>0.3279883724247838</v>
+        <v>0.3326363975928643</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05494917995682869</v>
+        <v>0.1264274986667751</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.714359342056568</v>
       </c>
       <c r="G5">
-        <v>0.2314367721272177</v>
+        <v>0.0008102521057534699</v>
       </c>
       <c r="H5">
-        <v>0.5535295491170373</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5947095647963181</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03852091052014472</v>
       </c>
       <c r="K5">
-        <v>0.3782211250780136</v>
+        <v>0.4236342931097496</v>
       </c>
       <c r="L5">
-        <v>0.1199127309672363</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4145715712645099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5649872277599783</v>
+      </c>
+      <c r="N5">
+        <v>0.9426346103130285</v>
+      </c>
+      <c r="O5">
+        <v>0.8170610298113488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.345701107649575</v>
+        <v>1.562943570859431</v>
       </c>
       <c r="C6">
-        <v>0.3255576954572632</v>
+        <v>0.3301564010202753</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05469690783780834</v>
+        <v>0.1258776903482293</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.707643278267682</v>
       </c>
       <c r="G6">
-        <v>0.2305336283428545</v>
+        <v>0.0008105488102195697</v>
       </c>
       <c r="H6">
-        <v>0.5520630578117363</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5937849615799067</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03857550535467702</v>
       </c>
       <c r="K6">
-        <v>0.3754200737499929</v>
+        <v>0.4205018503148068</v>
       </c>
       <c r="L6">
-        <v>0.1191007227353111</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4115426940578573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5611223227130751</v>
+      </c>
+      <c r="N6">
+        <v>0.944904833110229</v>
+      </c>
+      <c r="O6">
+        <v>0.8144408840599624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.415227078985652</v>
+        <v>1.643023910169944</v>
       </c>
       <c r="C7">
-        <v>0.3424573540423523</v>
+        <v>0.3473979403496799</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05645775280649445</v>
+        <v>0.1297043801256663</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.75455481147462</v>
       </c>
       <c r="G7">
-        <v>0.2368649780784153</v>
+        <v>0.0008085002941600703</v>
       </c>
       <c r="H7">
-        <v>0.562377101926181</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6003510746272909</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03820398951015846</v>
       </c>
       <c r="K7">
-        <v>0.3948897385269703</v>
+        <v>0.4422841358411418</v>
       </c>
       <c r="L7">
-        <v>0.1247554711622172</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4326096434077513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5880036099542849</v>
+      </c>
+      <c r="N7">
+        <v>0.929280828348034</v>
+      </c>
+      <c r="O7">
+        <v>0.8328064821005228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.724689486717324</v>
+        <v>2.00068208817288</v>
       </c>
       <c r="C8">
-        <v>0.4178504438431503</v>
+        <v>0.4242788170192284</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06448988999398253</v>
+        <v>0.1468645703604139</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.969381945927907</v>
       </c>
       <c r="G8">
-        <v>0.2664758712212105</v>
+        <v>0.0007997240353783219</v>
       </c>
       <c r="H8">
-        <v>0.6114700682997665</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6332383873885874</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03675728045166338</v>
       </c>
       <c r="K8">
-        <v>0.4815969745882285</v>
+        <v>0.5395252267287844</v>
       </c>
       <c r="L8">
-        <v>0.1502169067372954</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5267862203649614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7081292887906017</v>
+      </c>
+      <c r="N8">
+        <v>0.8637586304338924</v>
+      </c>
+      <c r="O8">
+        <v>0.9185967304383453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.345238254823357</v>
+        <v>2.722775000858746</v>
       </c>
       <c r="C9">
-        <v>0.569959737686986</v>
+        <v>0.5791206353042355</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08138784194068194</v>
+        <v>0.181669072527896</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>2.424293918979501</v>
       </c>
       <c r="G9">
-        <v>0.3318727886278339</v>
+        <v>0.000783384152884375</v>
       </c>
       <c r="H9">
-        <v>0.7231435760601954</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7143516433688646</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03470676697691033</v>
       </c>
       <c r="K9">
-        <v>0.6557208665821861</v>
+        <v>0.7357114756393273</v>
       </c>
       <c r="L9">
-        <v>0.2025050139634317</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7173526363060958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9507243915876487</v>
+      </c>
+      <c r="N9">
+        <v>0.748752631758272</v>
+      </c>
+      <c r="O9">
+        <v>1.10727662287745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.81397697497556</v>
+        <v>3.271644128201729</v>
       </c>
       <c r="C10">
-        <v>0.6857457652297114</v>
+        <v>0.696673042486907</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09472109475203894</v>
+        <v>0.2081224386497667</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>2.784903115089065</v>
       </c>
       <c r="G10">
-        <v>0.3857994125024078</v>
+        <v>0.0007718291672550142</v>
       </c>
       <c r="H10">
-        <v>0.8172911531108156</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7868062673324516</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03378031008183058</v>
       </c>
       <c r="K10">
-        <v>0.7874911169822241</v>
+        <v>0.8847743422197141</v>
       </c>
       <c r="L10">
-        <v>0.2429290652658338</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8625957898858019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.134974959593919</v>
+      </c>
+      <c r="N10">
+        <v>0.6737229588523732</v>
+      </c>
+      <c r="O10">
+        <v>1.261964765663677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.031140671816445</v>
+        <v>3.526761655813516</v>
       </c>
       <c r="C11">
-        <v>0.7396618784424334</v>
+        <v>0.7513044546346919</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1010414020011901</v>
+        <v>0.2203927025805115</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.956157082414364</v>
       </c>
       <c r="G11">
-        <v>0.4119669416944873</v>
+        <v>0.0007666501155983651</v>
       </c>
       <c r="H11">
-        <v>0.8634375507302394</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8232521534579291</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03351052372320851</v>
       </c>
       <c r="K11">
-        <v>0.8486142935175565</v>
+        <v>0.9540534009141481</v>
       </c>
       <c r="L11">
-        <v>0.2618997122388649</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9302251633889469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.220535655899326</v>
+      </c>
+      <c r="N11">
+        <v>0.6419604758683448</v>
+      </c>
+      <c r="O11">
+        <v>1.336732897857132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.114047900989647</v>
+        <v>3.624284379360518</v>
       </c>
       <c r="C12">
-        <v>0.7602924215455289</v>
+        <v>0.7721894607114734</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1034766098524926</v>
+        <v>0.225077193241809</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>3.02218165846574</v>
       </c>
       <c r="G12">
-        <v>0.4221452564945309</v>
+        <v>0.0007646982020933734</v>
       </c>
       <c r="H12">
-        <v>0.8814547060667337</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8376203866860052</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.03343264425160797</v>
       </c>
       <c r="K12">
-        <v>0.8719622879455073</v>
+        <v>0.9805362122033756</v>
       </c>
       <c r="L12">
-        <v>0.2691807288881236</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9560981501561372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.253226558145499</v>
+      </c>
+      <c r="N12">
+        <v>0.6303036453393034</v>
+      </c>
+      <c r="O12">
+        <v>1.36576409619488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.096160618716283</v>
+        <v>3.603238113834948</v>
       </c>
       <c r="C13">
-        <v>0.7558391609236992</v>
+        <v>0.7676821931954976</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1029501941635829</v>
+        <v>0.2240665459698974</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>3.007907498213115</v>
       </c>
       <c r="G13">
-        <v>0.4199406140342461</v>
+        <v>0.0007651182003577395</v>
       </c>
       <c r="H13">
-        <v>0.877549133858011</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8344995825607455</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0334482942783012</v>
       </c>
       <c r="K13">
-        <v>0.8669243403163449</v>
+        <v>0.9748209847136309</v>
       </c>
       <c r="L13">
-        <v>0.2676080721462029</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9505135571737213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.246172361839072</v>
+      </c>
+      <c r="N13">
+        <v>0.6327971346833223</v>
+      </c>
+      <c r="O13">
+        <v>1.359478301907842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.037947373545364</v>
+        <v>3.534765744677259</v>
       </c>
       <c r="C14">
-        <v>0.7413546684822734</v>
+        <v>0.7530185320350427</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1012408775363269</v>
+        <v>0.2207773123765833</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.961564584829461</v>
       </c>
       <c r="G14">
-        <v>0.4127987123754764</v>
+        <v>0.0007664893557566571</v>
       </c>
       <c r="H14">
-        <v>0.8649085571829005</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8244224690118216</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.03350361459328965</v>
       </c>
       <c r="K14">
-        <v>0.8505309002601251</v>
+        <v>0.9562269534404919</v>
       </c>
       <c r="L14">
-        <v>0.2624966930619124</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.932348232725758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.223219079892587</v>
+      </c>
+      <c r="N14">
+        <v>0.640993841251003</v>
+      </c>
+      <c r="O14">
+        <v>1.339106394818728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.002380985731861</v>
+        <v>3.49294786689245</v>
       </c>
       <c r="C15">
-        <v>0.7325114319049533</v>
+        <v>0.7440632909799945</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1001994852883534</v>
+        <v>0.2187676370834382</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.933335496605082</v>
       </c>
       <c r="G15">
-        <v>0.4084602333130789</v>
+        <v>0.0007673303785486748</v>
       </c>
       <c r="H15">
-        <v>0.8572385663647424</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8183258672143694</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03354074090420767</v>
       </c>
       <c r="K15">
-        <v>0.8405167727660796</v>
+        <v>0.9448710842642782</v>
       </c>
       <c r="L15">
-        <v>0.2593789220150029</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9212569701552979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.209198685057444</v>
+      </c>
+      <c r="N15">
+        <v>0.6460638261266851</v>
+      </c>
+      <c r="O15">
+        <v>1.326724239678882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.799872766544013</v>
+        <v>3.255092046271102</v>
       </c>
       <c r="C16">
-        <v>0.682250133132527</v>
+        <v>0.6931285858322553</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09431360765896812</v>
+        <v>0.2073256400182615</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.773867781227892</v>
       </c>
       <c r="G16">
-        <v>0.3841250367859601</v>
+        <v>0.0007721690341937378</v>
       </c>
       <c r="H16">
-        <v>0.8143475582685937</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7845000275536478</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03380119769695966</v>
       </c>
       <c r="K16">
-        <v>0.7835229922688143</v>
+        <v>0.8802794332634249</v>
       </c>
       <c r="L16">
-        <v>0.2417021187290445</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8582106416498192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.129421794043807</v>
+      </c>
+      <c r="N16">
+        <v>0.6758488905575675</v>
+      </c>
+      <c r="O16">
+        <v>1.257174111003366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.676719574676667</v>
+        <v>3.110657602216122</v>
       </c>
       <c r="C17">
-        <v>0.651758570303258</v>
+        <v>0.6621988715748728</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09077161532020739</v>
+        <v>0.2003696425892585</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>2.677979593336119</v>
       </c>
       <c r="G17">
-        <v>0.3696381343009563</v>
+        <v>0.0007751559576282406</v>
       </c>
       <c r="H17">
-        <v>0.7889292776102934</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7646861336084498</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03400149062838409</v>
       </c>
       <c r="K17">
-        <v>0.7488831907590807</v>
+        <v>0.8410559818673704</v>
       </c>
       <c r="L17">
-        <v>0.231016113039523</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8199591657086813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.080955171028606</v>
+      </c>
+      <c r="N17">
+        <v>0.6947482728558327</v>
+      </c>
+      <c r="O17">
+        <v>1.215692039160416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.606248133165877</v>
+        <v>3.028085371806753</v>
       </c>
       <c r="C18">
-        <v>0.6343354466376354</v>
+        <v>0.6445156883459049</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08875800820867852</v>
+        <v>0.1963907353009873</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.623496909907061</v>
       </c>
       <c r="G18">
-        <v>0.3614573834444741</v>
+        <v>0.0007768813607865401</v>
       </c>
       <c r="H18">
-        <v>0.7746173322872494</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7536134510405859</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0341308041717312</v>
       </c>
       <c r="K18">
-        <v>0.7290682342937558</v>
+        <v>0.8186315666602439</v>
       </c>
       <c r="L18">
-        <v>0.2249236380061248</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.798101922934535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.053239976333153</v>
+      </c>
+      <c r="N18">
+        <v>0.7058396623426049</v>
+      </c>
+      <c r="O18">
+        <v>1.192241114197088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.582447017730885</v>
+        <v>3.000210326528475</v>
       </c>
       <c r="C19">
-        <v>0.6284550072702473</v>
+        <v>0.6385459178512463</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08808014943624087</v>
+        <v>0.1950472083147972</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.605161077628225</v>
       </c>
       <c r="G19">
-        <v>0.3587126116922974</v>
+        <v>0.0007774668772755824</v>
       </c>
       <c r="H19">
-        <v>0.7698225826735836</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7499181578546512</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03417694047278985</v>
       </c>
       <c r="K19">
-        <v>0.722377020709942</v>
+        <v>0.8110613218303655</v>
       </c>
       <c r="L19">
-        <v>0.2228696873167735</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7907250463025974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.043882677754915</v>
+      </c>
+      <c r="N19">
+        <v>0.709632099879812</v>
+      </c>
+      <c r="O19">
+        <v>1.184368740194458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.689791139290833</v>
+        <v>3.125979952208809</v>
       </c>
       <c r="C20">
-        <v>0.6549923282480563</v>
+        <v>0.6654801290634964</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09114618276079156</v>
+        <v>0.2011078158974655</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.688116798568359</v>
       </c>
       <c r="G20">
-        <v>0.3711643528318973</v>
+        <v>0.0007748372410169395</v>
       </c>
       <c r="H20">
-        <v>0.7916027738148586</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7667613989141771</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.03397869178029111</v>
       </c>
       <c r="K20">
-        <v>0.7525591604291719</v>
+        <v>0.8452170677898749</v>
       </c>
       <c r="L20">
-        <v>0.2321479915488567</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8240159282639468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.086097531889074</v>
+      </c>
+      <c r="N20">
+        <v>0.6927133239389676</v>
+      </c>
+      <c r="O20">
+        <v>1.22006501365108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.055026861211445</v>
+        <v>3.554851756749997</v>
       </c>
       <c r="C21">
-        <v>0.7456030170463634</v>
+        <v>0.757319985085303</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1017417652893577</v>
+        <v>0.2217423746286968</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.975143576649259</v>
       </c>
       <c r="G21">
-        <v>0.4148888634767616</v>
+        <v>0.0007660863780189457</v>
       </c>
       <c r="H21">
-        <v>0.8686061165259389</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8273664109338199</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0334866853906135</v>
       </c>
       <c r="K21">
-        <v>0.8553402926150113</v>
+        <v>0.9616814151168427</v>
       </c>
       <c r="L21">
-        <v>0.2639952730958512</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9376763490138202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.229952777753027</v>
+      </c>
+      <c r="N21">
+        <v>0.6385759438493039</v>
+      </c>
+      <c r="O21">
+        <v>1.345069897613016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.29770594811248</v>
+        <v>3.840552644351305</v>
       </c>
       <c r="C22">
-        <v>0.8060872684676212</v>
+        <v>0.818509695408153</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1089133523589325</v>
+        <v>0.2354519434167841</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>3.169652816180502</v>
       </c>
       <c r="G22">
-        <v>0.4450535784312848</v>
+        <v>0.0007604202722321872</v>
       </c>
       <c r="H22">
-        <v>0.9221307888405903</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8703164867661712</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.03330805002057602</v>
       </c>
       <c r="K22">
-        <v>0.9237089124005422</v>
+        <v>1.039265471757886</v>
       </c>
       <c r="L22">
-        <v>0.285383680503017</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.013515971187608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.325688167093006</v>
+      </c>
+      <c r="N22">
+        <v>0.6053728182051046</v>
+      </c>
+      <c r="O22">
+        <v>1.431000692690887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.167780993606812</v>
+        <v>3.687525504874714</v>
       </c>
       <c r="C23">
-        <v>0.7736772822914872</v>
+        <v>0.7857335635044365</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1050612874572678</v>
+        <v>0.2281129926974259</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>3.065156799769312</v>
       </c>
       <c r="G23">
-        <v>0.4287964363023633</v>
+        <v>0.0007634401856622231</v>
       </c>
       <c r="H23">
-        <v>0.8932472498768931</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8470636502751034</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.03338941322953914</v>
       </c>
       <c r="K23">
-        <v>0.8870982054495045</v>
+        <v>0.997709710923246</v>
       </c>
       <c r="L23">
-        <v>0.2739107883987018</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9728823242511098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.274420772393626</v>
+      </c>
+      <c r="N23">
+        <v>0.622883635310103</v>
+      </c>
+      <c r="O23">
+        <v>1.384719608122325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.683880461926663</v>
+        <v>3.119051279154121</v>
       </c>
       <c r="C24">
-        <v>0.6535300159353028</v>
+        <v>0.6639963673537181</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09097677040155716</v>
+        <v>0.2007740251601717</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.683531770145379</v>
       </c>
       <c r="G24">
-        <v>0.370473891079854</v>
+        <v>0.0007749813071970625</v>
       </c>
       <c r="H24">
-        <v>0.7903931523424319</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7658221840010171</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03398895520962952</v>
       </c>
       <c r="K24">
-        <v>0.7508969456786687</v>
+        <v>0.8433354521546619</v>
       </c>
       <c r="L24">
-        <v>0.2316361112675267</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8221814513120762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.08377220969053</v>
+      </c>
+      <c r="N24">
+        <v>0.6936326230160574</v>
+      </c>
+      <c r="O24">
+        <v>1.218086759563519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.175463928787337</v>
+        <v>2.524655183975483</v>
       </c>
       <c r="C25">
-        <v>0.5282152875324186</v>
+        <v>0.5366687283986096</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07667240609727344</v>
+        <v>0.1721124678648636</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>2.297054282142838</v>
       </c>
       <c r="G25">
-        <v>0.3132596563837211</v>
+        <v>0.0007877192310389647</v>
       </c>
       <c r="H25">
-        <v>0.6910211449061876</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.69036432689321</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03516756767077389</v>
       </c>
       <c r="K25">
-        <v>0.6080472882417354</v>
+        <v>0.6818964391446229</v>
       </c>
       <c r="L25">
-        <v>0.1880519065717365</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6650096570700299</v>
+        <v>0.8841748064487973</v>
+      </c>
+      <c r="N25">
+        <v>0.7783005526353222</v>
+      </c>
+      <c r="O25">
+        <v>1.053694881268044</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.098799399691245</v>
+        <v>2.306685959831896</v>
       </c>
       <c r="C2">
-        <v>0.4453419099424138</v>
+        <v>0.2867789628169106</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1515860520632444</v>
+        <v>0.05403543709451775</v>
       </c>
       <c r="F2">
-        <v>2.029666720770081</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007974077514062898</v>
+        <v>0.2466247334116503</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2085050355461249</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0364151600599687</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5661916243609184</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2925690374027425</v>
       </c>
       <c r="M2">
-        <v>0.7410944331706233</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8468759927477691</v>
+        <v>0.8002692439459622</v>
       </c>
       <c r="O2">
-        <v>0.9431038369531421</v>
+        <v>0.9098176956965887</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.815663640900851</v>
+        <v>2.006788202496921</v>
       </c>
       <c r="C3">
-        <v>0.3845304350916763</v>
+        <v>0.2710831675518079</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1379755747578102</v>
+        <v>0.05266952674201164</v>
       </c>
       <c r="F3">
-        <v>1.857228952415994</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008041935972011001</v>
+        <v>0.2295610759574984</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2061197804853308</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03746450954140812</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4892299182706239</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2568595162174034</v>
       </c>
       <c r="M3">
-        <v>0.6459770569163652</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8968307641068094</v>
+        <v>0.7961643818273956</v>
       </c>
       <c r="O3">
-        <v>0.8734870925438045</v>
+        <v>0.8683001755803303</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.643963058460713</v>
+        <v>1.822742081066878</v>
       </c>
       <c r="C4">
-        <v>0.347600071514421</v>
+        <v>0.2614655736048093</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1297492994583251</v>
+        <v>0.05194375345088176</v>
       </c>
       <c r="F4">
-        <v>1.755107769796808</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008084764714984874</v>
+        <v>0.219810321240125</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2051217709116884</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03819974375121582</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.442539564594675</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2351316038010793</v>
       </c>
       <c r="M4">
-        <v>0.5883189063375269</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9290998308655638</v>
+        <v>0.7945283913064358</v>
       </c>
       <c r="O4">
-        <v>0.8330238328310102</v>
+        <v>0.8453158216578061</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.574458705770041</v>
+        <v>1.747746431104815</v>
       </c>
       <c r="C5">
-        <v>0.3326363975928643</v>
+        <v>0.2575510794604128</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1264274986667751</v>
+        <v>0.05167523840092869</v>
       </c>
       <c r="F5">
-        <v>1.714359342056568</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008102521057534699</v>
+        <v>0.2160082045106932</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2048273576318778</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03852091052014472</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4236342931097496</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2263222679283388</v>
       </c>
       <c r="M5">
-        <v>0.5649872277599783</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9426346103130285</v>
+        <v>0.7940771673654368</v>
       </c>
       <c r="O5">
-        <v>0.8170610298113488</v>
+        <v>0.8365456284178805</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.562943570859431</v>
+        <v>1.735293219769062</v>
       </c>
       <c r="C6">
-        <v>0.3301564010202753</v>
+        <v>0.2569013627032888</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1258776903482293</v>
+        <v>0.05163226447144353</v>
       </c>
       <c r="F6">
-        <v>1.707643278267682</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008105488102195697</v>
+        <v>0.215386897892472</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2047851092960116</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03857550535467702</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4205018503148068</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2248620645374899</v>
       </c>
       <c r="M6">
-        <v>0.5611223227130751</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.944904833110229</v>
+        <v>0.7940150588828132</v>
       </c>
       <c r="O6">
-        <v>0.8144408840599624</v>
+        <v>0.8351243708625731</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.643023910169944</v>
+        <v>1.821730668448623</v>
       </c>
       <c r="C7">
-        <v>0.3473979403496799</v>
+        <v>0.261412762356926</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1297043801256663</v>
+        <v>0.05194002333653636</v>
       </c>
       <c r="F7">
-        <v>1.75455481147462</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008085002941600703</v>
+        <v>0.2197583651145365</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.205117352205022</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03820398951015846</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4422841358411418</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2350126221202942</v>
       </c>
       <c r="M7">
-        <v>0.5880036099542849</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.929280828348034</v>
+        <v>0.7945214424769205</v>
       </c>
       <c r="O7">
-        <v>0.8328064821005228</v>
+        <v>0.8451951744920336</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.00068208817288</v>
+        <v>2.203250431438335</v>
       </c>
       <c r="C8">
-        <v>0.4242788170192284</v>
+        <v>0.2813628321199104</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1468645703604139</v>
+        <v>0.05354033366779909</v>
       </c>
       <c r="F8">
-        <v>1.969381945927907</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007997240353783219</v>
+        <v>0.2405834793327486</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.207582666755286</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03675728045166338</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5395252267287844</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2802123565781756</v>
       </c>
       <c r="M8">
-        <v>0.7081292887906017</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8637586304338924</v>
+        <v>0.7986660392745577</v>
       </c>
       <c r="O8">
-        <v>0.9185967304383453</v>
+        <v>0.8949607931077992</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.722775000858746</v>
+        <v>2.953073407664988</v>
       </c>
       <c r="C9">
-        <v>0.5791206353042355</v>
+        <v>0.3206538276502613</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.181669072527896</v>
+        <v>0.05762855391569133</v>
       </c>
       <c r="F9">
-        <v>2.424293918979501</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.000783384152884375</v>
+        <v>0.287720134601642</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2163578473979584</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03470676697691033</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7357114756393273</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3706511298253332</v>
       </c>
       <c r="M9">
-        <v>0.9507243915876487</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.748752631758272</v>
+        <v>0.8141429497711243</v>
       </c>
       <c r="O9">
-        <v>1.10727662287745</v>
+        <v>1.01408245664399</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.271644128201729</v>
+        <v>3.506418704345947</v>
       </c>
       <c r="C10">
-        <v>0.696673042486907</v>
+        <v>0.3496473909975606</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2081224386497667</v>
+        <v>0.06129046796482385</v>
       </c>
       <c r="F10">
-        <v>2.784903115089065</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007718291672550142</v>
+        <v>0.3269769883279139</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2255578989153975</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03378031008183058</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8847743422197141</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4385422549857196</v>
       </c>
       <c r="M10">
-        <v>1.134974959593919</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6737229588523732</v>
+        <v>0.8304842108201456</v>
       </c>
       <c r="O10">
-        <v>1.261964765663677</v>
+        <v>1.117127922471354</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.526761655813516</v>
+        <v>3.75902860614093</v>
       </c>
       <c r="C11">
-        <v>0.7513044546346919</v>
+        <v>0.3628709447055911</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2203927025805115</v>
+        <v>0.0631178217315167</v>
       </c>
       <c r="F11">
-        <v>2.956157082414364</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007666501155983651</v>
+        <v>0.3460257549226071</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2304237912655367</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03351052372320851</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9540534009141481</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4698240332619861</v>
       </c>
       <c r="M11">
-        <v>1.220535655899326</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6419604758683448</v>
+        <v>0.8391134703853567</v>
       </c>
       <c r="O11">
-        <v>1.336732897857132</v>
+        <v>1.167944070247643</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.624284379360518</v>
+        <v>3.854843475885787</v>
       </c>
       <c r="C12">
-        <v>0.7721894607114734</v>
+        <v>0.3678837947478115</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.225077193241809</v>
+        <v>0.06383465191532522</v>
       </c>
       <c r="F12">
-        <v>3.02218165846574</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007646982020933734</v>
+        <v>0.3534267169193299</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2323716434962648</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03343264425160797</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9805362122033756</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4817340479714716</v>
       </c>
       <c r="M12">
-        <v>1.253226558145499</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6303036453393034</v>
+        <v>0.842563353742193</v>
       </c>
       <c r="O12">
-        <v>1.36576409619488</v>
+        <v>1.187803821537017</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.603238113834948</v>
+        <v>3.834200562629007</v>
       </c>
       <c r="C13">
-        <v>0.7676821931954976</v>
+        <v>0.3668039408081967</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2240665459698974</v>
+        <v>0.06367913757906862</v>
       </c>
       <c r="F13">
-        <v>3.007907498213115</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007651182003577395</v>
+        <v>0.3518241707801764</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2319473355760522</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0334482942783012</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9748209847136309</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4791660361342878</v>
       </c>
       <c r="M13">
-        <v>1.246172361839072</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6327971346833223</v>
+        <v>0.841812087369405</v>
       </c>
       <c r="O13">
-        <v>1.359478301907842</v>
+        <v>1.183498402937801</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.534765744677259</v>
+        <v>3.766908033212928</v>
       </c>
       <c r="C14">
-        <v>0.7530185320350427</v>
+        <v>0.3632832443251033</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2207773123765833</v>
+        <v>0.06317628809150833</v>
       </c>
       <c r="F14">
-        <v>2.961564584829461</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007664893557566571</v>
+        <v>0.346630778820753</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2305818891278335</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03350361459328965</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9562269534404919</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4708025466780867</v>
       </c>
       <c r="M14">
-        <v>1.223219079892587</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.640993841251003</v>
+        <v>0.8393935823667675</v>
       </c>
       <c r="O14">
-        <v>1.339106394818728</v>
+        <v>1.169565283579601</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.49294786689245</v>
+        <v>3.725710756800538</v>
       </c>
       <c r="C15">
-        <v>0.7440632909799945</v>
+        <v>0.3611274307867234</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2187676370834382</v>
+        <v>0.06287156440175679</v>
       </c>
       <c r="F15">
-        <v>2.933335496605082</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007673303785486748</v>
+        <v>0.3434746133319777</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2297594462292807</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03354074090420767</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9448710842642782</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4656882581269741</v>
       </c>
       <c r="M15">
-        <v>1.209198685057444</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6460638261266851</v>
+        <v>0.8379362174893288</v>
       </c>
       <c r="O15">
-        <v>1.326724239678882</v>
+        <v>1.161112713951468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.255092046271102</v>
+        <v>3.489930394061389</v>
       </c>
       <c r="C16">
-        <v>0.6931285858322553</v>
+        <v>0.3487839271284656</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2073256400182615</v>
+        <v>0.06117443308940551</v>
       </c>
       <c r="F16">
-        <v>2.773867781227892</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007721690341937378</v>
+        <v>0.3257574425378067</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2252542174669969</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03380119769695966</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8802794332634249</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4365065161397723</v>
       </c>
       <c r="M16">
-        <v>1.129421794043807</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6758488905575675</v>
+        <v>0.8299451875681285</v>
       </c>
       <c r="O16">
-        <v>1.257174111003366</v>
+        <v>1.113890470629059</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.110657602216122</v>
+        <v>3.345534730002385</v>
       </c>
       <c r="C17">
-        <v>0.6621988715748728</v>
+        <v>0.3412206617260836</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2003696425892585</v>
+        <v>0.06017579501093451</v>
       </c>
       <c r="F17">
-        <v>2.677979593336119</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007751559576282406</v>
+        <v>0.3152048148060658</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2226698433054821</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03400149062838409</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8410559818673704</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4187112326159763</v>
       </c>
       <c r="M17">
-        <v>1.080955171028606</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6947482728558327</v>
+        <v>0.8253562500068341</v>
       </c>
       <c r="O17">
-        <v>1.215692039160416</v>
+        <v>1.085965029805806</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.028085371806753</v>
+        <v>3.262564105795832</v>
       </c>
       <c r="C18">
-        <v>0.6445156883459049</v>
+        <v>0.3368736634789684</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1963907353009873</v>
+        <v>0.05961650617814129</v>
       </c>
       <c r="F18">
-        <v>2.623496909907061</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007768813607865401</v>
+        <v>0.3092462469651736</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2212469864745827</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0341308041717312</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8186315666602439</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4085128438703407</v>
       </c>
       <c r="M18">
-        <v>1.053239976333153</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7058396623426049</v>
+        <v>0.8228286928802078</v>
       </c>
       <c r="O18">
-        <v>1.192241114197088</v>
+        <v>1.070270738000261</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.000210326528475</v>
+        <v>3.234484905309785</v>
       </c>
       <c r="C19">
-        <v>0.6385459178512463</v>
+        <v>0.3354023798611649</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1950472083147972</v>
+        <v>0.05942968634986912</v>
       </c>
       <c r="F19">
-        <v>2.605161077628225</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007774668772755824</v>
+        <v>0.3072473644452316</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2207759397987843</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03417694047278985</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8110613218303655</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4050659891513959</v>
       </c>
       <c r="M19">
-        <v>1.043882677754915</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.709632099879812</v>
+        <v>0.821991818668792</v>
       </c>
       <c r="O19">
-        <v>1.184368740194458</v>
+        <v>1.065018594264615</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.125979952208809</v>
+        <v>3.360897211470615</v>
       </c>
       <c r="C20">
-        <v>0.6654801290634964</v>
+        <v>0.342025450771331</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2011078158974655</v>
+        <v>0.06028052734963651</v>
       </c>
       <c r="F20">
-        <v>2.688116798568359</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007748372410169395</v>
+        <v>0.3163165540363337</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.222938319532787</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03397869178029111</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8452170677898749</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4206016930297949</v>
       </c>
       <c r="M20">
-        <v>1.086097531889074</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6927133239389676</v>
+        <v>0.8258330990256155</v>
       </c>
       <c r="O20">
-        <v>1.22006501365108</v>
+        <v>1.088899333751641</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.554851756749997</v>
+        <v>3.78666897804186</v>
       </c>
       <c r="C21">
-        <v>0.757319985085303</v>
+        <v>0.3643172083878596</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2217423746286968</v>
+        <v>0.0633232993131827</v>
       </c>
       <c r="F21">
-        <v>2.975143576649259</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007660863780189457</v>
+        <v>0.3481509762768553</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.23098003651792</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0334866853906135</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9616814151168427</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4732573027356182</v>
       </c>
       <c r="M21">
-        <v>1.229952777753027</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6385759438493039</v>
+        <v>0.8400989269345871</v>
       </c>
       <c r="O21">
-        <v>1.345069897613016</v>
+        <v>1.173640622960562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.840552644351305</v>
+        <v>4.065865516941585</v>
       </c>
       <c r="C22">
-        <v>0.818509695408153</v>
+        <v>0.3789177552168468</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2354519434167841</v>
+        <v>0.06545760084584629</v>
       </c>
       <c r="F22">
-        <v>3.169652816180502</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007604202722321872</v>
+        <v>0.3700585319276968</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2368529777420889</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03330805002057602</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.039265471757886</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5080491271786514</v>
       </c>
       <c r="M22">
-        <v>1.325688167093006</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6053728182051046</v>
+        <v>0.8504895266108008</v>
       </c>
       <c r="O22">
-        <v>1.431000692690887</v>
+        <v>1.232644723250132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.687525504874714</v>
+        <v>3.916757813200945</v>
       </c>
       <c r="C23">
-        <v>0.7857335635044365</v>
+        <v>0.3711221127332465</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2281129926974259</v>
+        <v>0.06430459301032343</v>
       </c>
       <c r="F23">
-        <v>3.065156799769312</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007634401856622231</v>
+        <v>0.3582595280186069</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2336594446377944</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03338941322953914</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.997709710923246</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4894429884434288</v>
       </c>
       <c r="M23">
-        <v>1.274420772393626</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.622883635310103</v>
+        <v>0.8448426736611481</v>
       </c>
       <c r="O23">
-        <v>1.384719608122325</v>
+        <v>1.200804369784748</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.119051279154121</v>
+        <v>3.353951697568675</v>
       </c>
       <c r="C24">
-        <v>0.6639963673537181</v>
+        <v>0.3416616018654395</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2007740251601717</v>
+        <v>0.06023313175298384</v>
       </c>
       <c r="F24">
-        <v>2.683531770145379</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007749813071970625</v>
+        <v>0.3158136006945398</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2228167459545602</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03398895520962952</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8433354521546619</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4197469156225679</v>
       </c>
       <c r="M24">
-        <v>1.08377220969053</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6936326230160574</v>
+        <v>0.8256171715955247</v>
       </c>
       <c r="O24">
-        <v>1.218086759563519</v>
+        <v>1.087571616077668</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.524655183975483</v>
+        <v>2.74990607327328</v>
       </c>
       <c r="C25">
-        <v>0.5366687283986096</v>
+        <v>0.3100042259371207</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1721124678648636</v>
+        <v>0.05641295965791215</v>
       </c>
       <c r="F25">
-        <v>2.297054282142838</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007877192310389647</v>
+        <v>0.2742157832905221</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2135271161787955</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03516756767077389</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6818964391446229</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3459575523507397</v>
       </c>
       <c r="M25">
-        <v>0.8841748064487973</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7783005526353222</v>
+        <v>0.8091204676992447</v>
       </c>
       <c r="O25">
-        <v>1.053694881268044</v>
+        <v>0.9793125274234313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.306685959831896</v>
+        <v>0.8999976118043378</v>
       </c>
       <c r="C2">
-        <v>0.2867789628169106</v>
+        <v>0.2771270230097684</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05403543709451775</v>
+        <v>0.1163700776058363</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.2466247334116503</v>
+        <v>0.3353931556889975</v>
       </c>
       <c r="H2">
-        <v>0.2085050355461249</v>
+        <v>0.5015183666473888</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2925690374027425</v>
+        <v>0.1973744587832158</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8002692439459622</v>
+        <v>1.046251808964243</v>
       </c>
       <c r="O2">
-        <v>0.9098176956965887</v>
+        <v>1.607580560632726</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.006788202496921</v>
+        <v>0.8086648358936372</v>
       </c>
       <c r="C3">
-        <v>0.2710831675518079</v>
+        <v>0.272106846402167</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05266952674201164</v>
+        <v>0.1170412136229899</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.2295610759574984</v>
+        <v>0.3351425347788322</v>
       </c>
       <c r="H3">
-        <v>0.2061197804853308</v>
+        <v>0.5051237346264017</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2568595162174034</v>
+        <v>0.1882302716911397</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7961643818273956</v>
+        <v>1.047611093682185</v>
       </c>
       <c r="O3">
-        <v>0.8683001755803303</v>
+        <v>1.614339806777366</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.822742081066878</v>
+        <v>0.7525909376618642</v>
       </c>
       <c r="C4">
-        <v>0.2614655736048093</v>
+        <v>0.2690385543669578</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05194375345088176</v>
+        <v>0.1175197626729005</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.219810321240125</v>
+        <v>0.335293545927648</v>
       </c>
       <c r="H4">
-        <v>0.2051217709116884</v>
+        <v>0.5076050336218785</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2351316038010793</v>
+        <v>0.1827077027227659</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7945283913064358</v>
+        <v>1.048863099074936</v>
       </c>
       <c r="O4">
-        <v>0.8453158216578061</v>
+        <v>1.619687510133119</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.747746431104815</v>
+        <v>0.7297432065051339</v>
       </c>
       <c r="C5">
-        <v>0.2575510794604128</v>
+        <v>0.2677919151960992</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05167523840092869</v>
+        <v>0.1177314947773667</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2160082045106932</v>
+        <v>0.3354315907437595</v>
       </c>
       <c r="H5">
-        <v>0.2048273576318778</v>
+        <v>0.5086834744196906</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2263222679283388</v>
+        <v>0.1804804610007977</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7940771673654368</v>
+        <v>1.0494785267271</v>
       </c>
       <c r="O5">
-        <v>0.8365456284178805</v>
+        <v>1.622167523658661</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.735293219769062</v>
+        <v>0.7259495776141307</v>
       </c>
       <c r="C6">
-        <v>0.2569013627032888</v>
+        <v>0.2675851409330932</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05163226447144353</v>
+        <v>0.1177676627049582</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.215386897892472</v>
+        <v>0.3354591290488429</v>
       </c>
       <c r="H6">
-        <v>0.2047851092960116</v>
+        <v>0.5088666130449155</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2248620645374899</v>
+        <v>0.1801120368709377</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7940150588828132</v>
+        <v>1.049587081300167</v>
       </c>
       <c r="O6">
-        <v>0.8351243708625731</v>
+        <v>1.622597484477922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.821730668448623</v>
+        <v>0.7522827915157677</v>
       </c>
       <c r="C7">
-        <v>0.261412762356926</v>
+        <v>0.2690217264952963</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05194002333653636</v>
+        <v>0.1175225504621658</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2197583651145365</v>
+        <v>0.3352950980907536</v>
       </c>
       <c r="H7">
-        <v>0.205117352205022</v>
+        <v>0.5076193053866191</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2350126221202942</v>
+        <v>0.1826775710695756</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7945214424769205</v>
+        <v>1.048870972537472</v>
       </c>
       <c r="O7">
-        <v>0.8451951744920336</v>
+        <v>1.619719739064465</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.203250431438335</v>
+        <v>0.8685060253064876</v>
       </c>
       <c r="C8">
-        <v>0.2813628321199104</v>
+        <v>0.2753932333250049</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05354033366779909</v>
+        <v>0.1165876927907359</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.2405834793327486</v>
+        <v>0.3352433628332179</v>
       </c>
       <c r="H8">
-        <v>0.207582666755286</v>
+        <v>0.5027059616239029</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2802123565781756</v>
+        <v>0.1942025151694793</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7986660392745577</v>
+        <v>1.046634015979038</v>
       </c>
       <c r="O8">
-        <v>0.8949607931077992</v>
+        <v>1.609662400426885</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.953073407664988</v>
+        <v>1.096396883263594</v>
       </c>
       <c r="C9">
-        <v>0.3206538276502613</v>
+        <v>0.2879931478376108</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05762855391569133</v>
+        <v>0.115281679248735</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.287720134601642</v>
+        <v>0.3375689767277379</v>
       </c>
       <c r="H9">
-        <v>0.2163578473979584</v>
+        <v>0.4951941392221499</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3706511298253332</v>
+        <v>0.2175290847482927</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8141429497711243</v>
+        <v>1.045548529081827</v>
       </c>
       <c r="O9">
-        <v>1.01408245664399</v>
+        <v>1.599458652273682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.506418704345947</v>
+        <v>1.263749435957436</v>
       </c>
       <c r="C10">
-        <v>0.3496473909975606</v>
+        <v>0.2973066444113783</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06129046796482385</v>
+        <v>0.114643465033879</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.3269769883279139</v>
+        <v>0.3407689632092854</v>
       </c>
       <c r="H10">
-        <v>0.2255578989153975</v>
+        <v>0.490969943602579</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4385422549857196</v>
+        <v>0.2351066880623591</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8304842108201456</v>
+        <v>1.046750640273089</v>
       </c>
       <c r="O10">
-        <v>1.117127922471354</v>
+        <v>1.597790854824837</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.75902860614093</v>
+        <v>1.339852518879582</v>
       </c>
       <c r="C11">
-        <v>0.3628709447055911</v>
+        <v>0.3015542146575427</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0631178217315167</v>
+        <v>0.1144228803297125</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.3460257549226071</v>
+        <v>0.3425511164970914</v>
       </c>
       <c r="H11">
-        <v>0.2304237912655367</v>
+        <v>0.4893294942384188</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4698240332619861</v>
+        <v>0.2431980942630787</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8391134703853567</v>
+        <v>1.047729159130057</v>
       </c>
       <c r="O11">
-        <v>1.167944070247643</v>
+        <v>1.598303556878051</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.854843475885787</v>
+        <v>1.368665532576074</v>
       </c>
       <c r="C12">
-        <v>0.3678837947478115</v>
+        <v>0.3031640595945646</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06383465191532522</v>
+        <v>0.1143493765307362</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.3534267169193299</v>
+        <v>0.3432731043544806</v>
       </c>
       <c r="H12">
-        <v>0.2323716434962648</v>
+        <v>0.4887487351601862</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4817340479714716</v>
+        <v>0.2462757072233188</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.842563353742193</v>
+        <v>1.048161546804394</v>
       </c>
       <c r="O12">
-        <v>1.187803821537017</v>
+        <v>1.598680945541332</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.834200562629007</v>
+        <v>1.362460410535959</v>
       </c>
       <c r="C13">
-        <v>0.3668039408081967</v>
+        <v>0.3028172919501344</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06367913757906862</v>
+        <v>0.1143647609756115</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.3518241707801764</v>
+        <v>0.3431155126000505</v>
       </c>
       <c r="H13">
-        <v>0.2319473355760522</v>
+        <v>0.488872013073717</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4791660361342878</v>
+        <v>0.2456122865551578</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.841812087369405</v>
+        <v>1.048065677477624</v>
       </c>
       <c r="O13">
-        <v>1.183498402937801</v>
+        <v>1.5985915119428</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.766908033212928</v>
+        <v>1.342223104666004</v>
       </c>
       <c r="C14">
-        <v>0.3632832443251033</v>
+        <v>0.3016866308536237</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06317628809150833</v>
+        <v>0.1144166321869129</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.346630778820753</v>
+        <v>0.3426095693897082</v>
       </c>
       <c r="H14">
-        <v>0.2305818891278335</v>
+        <v>0.4892809042161446</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4708025466780867</v>
+        <v>0.2434510200337314</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8393935823667675</v>
+        <v>1.047763493784103</v>
       </c>
       <c r="O14">
-        <v>1.169565283579601</v>
+        <v>1.598330930112866</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.725710756800538</v>
+        <v>1.329826392309542</v>
       </c>
       <c r="C15">
-        <v>0.3611274307867234</v>
+        <v>0.3009942431849879</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06287156440175679</v>
+        <v>0.1144497105311082</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.3434746133319777</v>
+        <v>0.3423058069597147</v>
       </c>
       <c r="H15">
-        <v>0.2297594462292807</v>
+        <v>0.4895366291755892</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4656882581269741</v>
+        <v>0.2421289457431612</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8379362174893288</v>
+        <v>1.047586444685336</v>
       </c>
       <c r="O15">
-        <v>1.161112713951468</v>
+        <v>1.598195191669276</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.489930394061389</v>
+        <v>1.258775237138991</v>
       </c>
       <c r="C16">
-        <v>0.3487839271284656</v>
+        <v>0.2970292585249439</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06117443308940551</v>
+        <v>0.1146592839854605</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.3257574425378067</v>
+        <v>0.3406590800045421</v>
       </c>
       <c r="H16">
-        <v>0.2252542174669969</v>
+        <v>0.4910828095880362</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4365065161397723</v>
+        <v>0.2345798018660048</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8299451875681285</v>
+        <v>1.046695358338113</v>
       </c>
       <c r="O16">
-        <v>1.113890470629059</v>
+        <v>1.597782967739903</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.345534730002385</v>
+        <v>1.215179623503673</v>
       </c>
       <c r="C17">
-        <v>0.3412206617260836</v>
+        <v>0.2945995153950776</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06017579501093451</v>
+        <v>0.1148057117653885</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.3152048148060658</v>
+        <v>0.339732610050163</v>
       </c>
       <c r="H17">
-        <v>0.2226698433054821</v>
+        <v>0.4921033620680504</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4187112326159763</v>
+        <v>0.2299729569779032</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8253562500068341</v>
+        <v>1.046259102164825</v>
       </c>
       <c r="O17">
-        <v>1.085965029805806</v>
+        <v>1.59785601193704</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.262564105795832</v>
+        <v>1.190102197293811</v>
       </c>
       <c r="C18">
-        <v>0.3368736634789684</v>
+        <v>0.2932030195462971</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05961650617814129</v>
+        <v>0.1148964977394122</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.3092462469651736</v>
+        <v>0.3392304466477469</v>
       </c>
       <c r="H18">
-        <v>0.2212469864745827</v>
+        <v>0.4927168200343317</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4085128438703407</v>
+        <v>0.2273321961267385</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8228286928802078</v>
+        <v>1.046048823665544</v>
       </c>
       <c r="O18">
-        <v>1.070270738000261</v>
+        <v>1.598017669817125</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.234484905309785</v>
+        <v>1.181611056529107</v>
       </c>
       <c r="C19">
-        <v>0.3354023798611649</v>
+        <v>0.2927303719085188</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05942968634986912</v>
+        <v>0.1149283638433083</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.3072473644452316</v>
+        <v>0.33906569301692</v>
       </c>
       <c r="H19">
-        <v>0.2207759397987843</v>
+        <v>0.4929290710311136</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4050659891513959</v>
+        <v>0.2264396250891281</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.821991818668792</v>
+        <v>1.045984614802919</v>
       </c>
       <c r="O19">
-        <v>1.065018594264615</v>
+        <v>1.598092940807589</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.360897211470615</v>
+        <v>1.219820710397244</v>
       </c>
       <c r="C20">
-        <v>0.342025450771331</v>
+        <v>0.294858060543433</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06028052734963651</v>
+        <v>0.1147894448823266</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.3163165540363337</v>
+        <v>0.3398280538920062</v>
       </c>
       <c r="H20">
-        <v>0.222938319532787</v>
+        <v>0.4919919835784015</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4206016930297949</v>
+        <v>0.2304624355685121</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8258330990256155</v>
+        <v>1.046301337506208</v>
       </c>
       <c r="O20">
-        <v>1.088899333751641</v>
+        <v>1.597835850452668</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.78666897804186</v>
+        <v>1.348167457285399</v>
       </c>
       <c r="C21">
-        <v>0.3643172083878596</v>
+        <v>0.3020186972835717</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0633232993131827</v>
+        <v>0.1144011242456919</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.3481509762768553</v>
+        <v>0.3427568967862129</v>
       </c>
       <c r="H21">
-        <v>0.23098003651792</v>
+        <v>0.4891597052459247</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4732573027356182</v>
+        <v>0.2440854690402148</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8400989269345871</v>
+        <v>1.047850575847733</v>
       </c>
       <c r="O21">
-        <v>1.173640622960562</v>
+        <v>1.598402492955245</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.065865516941585</v>
+        <v>1.432016177386515</v>
       </c>
       <c r="C22">
-        <v>0.3789177552168468</v>
+        <v>0.3067065646454807</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06545760084584629</v>
+        <v>0.1142057773570357</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.3700585319276968</v>
+        <v>0.3449458284580942</v>
       </c>
       <c r="H22">
-        <v>0.2368529777420889</v>
+        <v>0.4875443893371312</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5080491271786514</v>
+        <v>0.2530679641574096</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8504895266108008</v>
+        <v>1.049223462214229</v>
       </c>
       <c r="O22">
-        <v>1.232644723250132</v>
+        <v>1.599841076847071</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.916757813200945</v>
+        <v>1.387268168636865</v>
       </c>
       <c r="C23">
-        <v>0.3711221127332465</v>
+        <v>0.3042038885604939</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06430459301032343</v>
+        <v>0.1143046908097425</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.3582595280186069</v>
+        <v>0.3437523544542813</v>
       </c>
       <c r="H23">
-        <v>0.2336594446377944</v>
+        <v>0.4883849391028434</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4894429884434288</v>
+        <v>0.2482666456890144</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8448426736611481</v>
+        <v>1.048457827939117</v>
       </c>
       <c r="O23">
-        <v>1.200804369784748</v>
+        <v>1.598975396376346</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.353951697568675</v>
+        <v>1.217722517635536</v>
       </c>
       <c r="C24">
-        <v>0.3416616018654395</v>
+        <v>0.2947411710365913</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06023313175298384</v>
+        <v>0.1147967785736128</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.3158136006945398</v>
+        <v>0.339784808813036</v>
       </c>
       <c r="H24">
-        <v>0.2228167459545602</v>
+        <v>0.4920422545361447</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4197469156225679</v>
+        <v>0.230241118069074</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8256171715955247</v>
+        <v>1.046282116639063</v>
       </c>
       <c r="O24">
-        <v>1.087571616077668</v>
+        <v>1.597844592747009</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.74990607327328</v>
+        <v>1.034755526531228</v>
       </c>
       <c r="C25">
-        <v>0.3100042259371207</v>
+        <v>0.2845740741551737</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05641295965791215</v>
+        <v>0.1155785564558638</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2742157832905221</v>
+        <v>0.3366787826482849</v>
       </c>
       <c r="H25">
-        <v>0.2135271161787955</v>
+        <v>0.4969989424160985</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3459575523507397</v>
+        <v>0.2111412085871507</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8091204676992447</v>
+        <v>1.045490117173998</v>
       </c>
       <c r="O25">
-        <v>0.9793125274234313</v>
+        <v>1.601197293615641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8999976118043378</v>
+        <v>2.306685959831952</v>
       </c>
       <c r="C2">
-        <v>0.2771270230097684</v>
+        <v>0.2867789628169248</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1163700776058363</v>
+        <v>0.05403543709451952</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3353931556889975</v>
+        <v>0.2466247334116574</v>
       </c>
       <c r="H2">
-        <v>0.5015183666473888</v>
+        <v>0.2085050355461249</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1973744587832158</v>
+        <v>0.2925690374026715</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046251808964243</v>
+        <v>0.8002692439459622</v>
       </c>
       <c r="O2">
-        <v>1.607580560632726</v>
+        <v>0.9098176956965887</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8086648358936372</v>
+        <v>2.006788202496807</v>
       </c>
       <c r="C3">
-        <v>0.272106846402167</v>
+        <v>0.2710831675520353</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1170412136229899</v>
+        <v>0.05266952674205427</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3351425347788322</v>
+        <v>0.2295610759575624</v>
       </c>
       <c r="H3">
-        <v>0.5051237346264017</v>
+        <v>0.2061197804853308</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1882302716911397</v>
+        <v>0.2568595162173466</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.047611093682185</v>
+        <v>0.7961643818273885</v>
       </c>
       <c r="O3">
-        <v>1.614339806777366</v>
+        <v>0.8683001755802735</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7525909376618642</v>
+        <v>1.822742081066878</v>
       </c>
       <c r="C4">
-        <v>0.2690385543669578</v>
+        <v>0.2614655736046387</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1175197626729005</v>
+        <v>0.05194375345088353</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.335293545927648</v>
+        <v>0.2198103212400611</v>
       </c>
       <c r="H4">
-        <v>0.5076050336218785</v>
+        <v>0.2051217709116884</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1827077027227659</v>
+        <v>0.2351316038009799</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048863099074936</v>
+        <v>0.79452839130645</v>
       </c>
       <c r="O4">
-        <v>1.619687510133119</v>
+        <v>0.8453158216577776</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7297432065051339</v>
+        <v>1.747746431104844</v>
       </c>
       <c r="C5">
-        <v>0.2677919151960992</v>
+        <v>0.2575510794597022</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1177314947773667</v>
+        <v>0.05167523840098021</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3354315907437595</v>
+        <v>0.2160082045106364</v>
       </c>
       <c r="H5">
-        <v>0.5086834744196906</v>
+        <v>0.2048273576318778</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1804804610007977</v>
+        <v>0.2263222679282961</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.0494785267271</v>
+        <v>0.7940771673654368</v>
       </c>
       <c r="O5">
-        <v>1.622167523658661</v>
+        <v>0.8365456284178663</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7259495776141307</v>
+        <v>1.735293219769204</v>
       </c>
       <c r="C6">
-        <v>0.2675851409330932</v>
+        <v>0.2569013627036156</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1177676627049582</v>
+        <v>0.05163226447145597</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3354591290488429</v>
+        <v>0.2153868978924791</v>
       </c>
       <c r="H6">
-        <v>0.5088666130449155</v>
+        <v>0.2047851092960116</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1801120368709377</v>
+        <v>0.2248620645375041</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.049587081300167</v>
+        <v>0.7940150588828061</v>
       </c>
       <c r="O6">
-        <v>1.622597484477922</v>
+        <v>0.8351243708625589</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7522827915157677</v>
+        <v>1.821730668448765</v>
       </c>
       <c r="C7">
-        <v>0.2690217264952963</v>
+        <v>0.2614127623569118</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1175225504621658</v>
+        <v>0.05194002333654879</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3352950980907536</v>
+        <v>0.2197583651145365</v>
       </c>
       <c r="H7">
-        <v>0.5076193053866191</v>
+        <v>0.205117352205022</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1826775710695756</v>
+        <v>0.2350126221203084</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.048870972537472</v>
+        <v>0.7945214424769063</v>
       </c>
       <c r="O7">
-        <v>1.619719739064465</v>
+        <v>0.8451951744920763</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8685060253064876</v>
+        <v>2.203250431438391</v>
       </c>
       <c r="C8">
-        <v>0.2753932333250049</v>
+        <v>0.2813628321199246</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1165876927907359</v>
+        <v>0.05354033366779554</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3352433628332179</v>
+        <v>0.2405834793328125</v>
       </c>
       <c r="H8">
-        <v>0.5027059616239029</v>
+        <v>0.2075826667552931</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1942025151694793</v>
+        <v>0.2802123565781898</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.046634015979038</v>
+        <v>0.7986660392745435</v>
       </c>
       <c r="O8">
-        <v>1.609662400426885</v>
+        <v>0.8949607931078134</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.096396883263594</v>
+        <v>2.953073407665045</v>
       </c>
       <c r="C9">
-        <v>0.2879931478376108</v>
+        <v>0.3206538276505455</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.115281679248735</v>
+        <v>0.05762855391565935</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.3375689767277379</v>
+        <v>0.2877201346016278</v>
       </c>
       <c r="H9">
-        <v>0.4951941392221499</v>
+        <v>0.2163578473979584</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2175290847482927</v>
+        <v>0.3706511298253048</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.045548529081827</v>
+        <v>0.8141429497710675</v>
       </c>
       <c r="O9">
-        <v>1.599458652273682</v>
+        <v>1.014082456643933</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.263749435957436</v>
+        <v>3.50641870434589</v>
       </c>
       <c r="C10">
-        <v>0.2973066444113783</v>
+        <v>0.349647390997788</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.114643465033879</v>
+        <v>0.06129046796482029</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.3407689632092854</v>
+        <v>0.3269769883279565</v>
       </c>
       <c r="H10">
-        <v>0.490969943602579</v>
+        <v>0.2255578989155111</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2351066880623591</v>
+        <v>0.4385422549856202</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.046750640273089</v>
+        <v>0.8304842108202024</v>
       </c>
       <c r="O10">
-        <v>1.597790854824837</v>
+        <v>1.117127922471383</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.339852518879582</v>
+        <v>3.759028606141101</v>
       </c>
       <c r="C11">
-        <v>0.3015542146575427</v>
+        <v>0.3628709447055058</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1144228803297125</v>
+        <v>0.06311782173149183</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.3425511164970914</v>
+        <v>0.3460257549225219</v>
       </c>
       <c r="H11">
-        <v>0.4893294942384188</v>
+        <v>0.2304237912655367</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2431980942630787</v>
+        <v>0.469824033262114</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.047729159130057</v>
+        <v>0.8391134703852998</v>
       </c>
       <c r="O11">
-        <v>1.598303556878051</v>
+        <v>1.167944070247671</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.368665532576074</v>
+        <v>3.854843475885843</v>
       </c>
       <c r="C12">
-        <v>0.3031640595945646</v>
+        <v>0.367883794747641</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1143493765307362</v>
+        <v>0.06383465191532167</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.3432731043544806</v>
+        <v>0.3534267169193441</v>
       </c>
       <c r="H12">
-        <v>0.4887487351601862</v>
+        <v>0.2323716434962506</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2462757072233188</v>
+        <v>0.4817340479716705</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.048161546804394</v>
+        <v>0.8425633537421362</v>
       </c>
       <c r="O12">
-        <v>1.598680945541332</v>
+        <v>1.187803821537017</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.362460410535959</v>
+        <v>3.834200562629007</v>
       </c>
       <c r="C13">
-        <v>0.3028172919501344</v>
+        <v>0.3668039408079693</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1143647609756115</v>
+        <v>0.06367913757909704</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.3431155126000505</v>
+        <v>0.3518241707801195</v>
       </c>
       <c r="H13">
-        <v>0.488872013073717</v>
+        <v>0.2319473355759385</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2456122865551578</v>
+        <v>0.4791660361342736</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.048065677477624</v>
+        <v>0.841812087369334</v>
       </c>
       <c r="O13">
-        <v>1.5985915119428</v>
+        <v>1.183498402937801</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.342223104666004</v>
+        <v>3.766908033212815</v>
       </c>
       <c r="C14">
-        <v>0.3016866308536237</v>
+        <v>0.3632832443248759</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1144166321869129</v>
+        <v>0.06317628809153319</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3426095693897082</v>
+        <v>0.346630778820824</v>
       </c>
       <c r="H14">
-        <v>0.4892809042161446</v>
+        <v>0.2305818891278335</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2434510200337314</v>
+        <v>0.4708025466781152</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.047763493784103</v>
+        <v>0.8393935823667533</v>
       </c>
       <c r="O14">
-        <v>1.598330930112866</v>
+        <v>1.169565283579658</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.329826392309542</v>
+        <v>3.725710756800652</v>
       </c>
       <c r="C15">
-        <v>0.3009942431849879</v>
+        <v>0.3611274307867518</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1144497105311082</v>
+        <v>0.06287156440176389</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.3423058069597147</v>
+        <v>0.3434746133320346</v>
       </c>
       <c r="H15">
-        <v>0.4895366291755892</v>
+        <v>0.2297594462292807</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2421289457431612</v>
+        <v>0.4656882581269599</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.047586444685336</v>
+        <v>0.837936217489343</v>
       </c>
       <c r="O15">
-        <v>1.598195191669276</v>
+        <v>1.161112713951468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258775237138991</v>
+        <v>3.489930394061389</v>
       </c>
       <c r="C16">
-        <v>0.2970292585249439</v>
+        <v>0.3487839271284656</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1146592839854605</v>
+        <v>0.06117443308940551</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3406590800045421</v>
+        <v>0.3257574425378067</v>
       </c>
       <c r="H16">
-        <v>0.4910828095880362</v>
+        <v>0.2252542174671106</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2345798018660048</v>
+        <v>0.4365065161397865</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.046695358338113</v>
+        <v>0.8299451875681996</v>
       </c>
       <c r="O16">
-        <v>1.597782967739903</v>
+        <v>1.113890470629059</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.215179623503673</v>
+        <v>3.345534730002498</v>
       </c>
       <c r="C17">
-        <v>0.2945995153950776</v>
+        <v>0.3412206617260267</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1148057117653885</v>
+        <v>0.0601757950109203</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.339732610050163</v>
+        <v>0.3152048148060942</v>
       </c>
       <c r="H17">
-        <v>0.4921033620680504</v>
+        <v>0.2226698433054821</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2299729569779032</v>
+        <v>0.4187112326160616</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.046259102164825</v>
+        <v>0.8253562500068057</v>
       </c>
       <c r="O17">
-        <v>1.59785601193704</v>
+        <v>1.085965029805834</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.190102197293811</v>
+        <v>3.262564105795889</v>
       </c>
       <c r="C18">
-        <v>0.2932030195462971</v>
+        <v>0.3368736634791958</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1148964977394122</v>
+        <v>0.05961650617812708</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3392304466477469</v>
+        <v>0.3092462469651736</v>
       </c>
       <c r="H18">
-        <v>0.4927168200343317</v>
+        <v>0.2212469864745685</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2273321961267385</v>
+        <v>0.4085128438702981</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.046048823665544</v>
+        <v>0.8228286928802078</v>
       </c>
       <c r="O18">
-        <v>1.598017669817125</v>
+        <v>1.070270738000318</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.181611056529107</v>
+        <v>3.234484905309785</v>
       </c>
       <c r="C19">
-        <v>0.2927303719085188</v>
+        <v>0.335402379861236</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1149283638433083</v>
+        <v>0.05942968634987977</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.33906569301692</v>
+        <v>0.3072473644452884</v>
       </c>
       <c r="H19">
-        <v>0.4929290710311136</v>
+        <v>0.2207759397986706</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2264396250891281</v>
+        <v>0.4050659891513249</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.045984614802919</v>
+        <v>0.821991818668792</v>
       </c>
       <c r="O19">
-        <v>1.598092940807589</v>
+        <v>1.065018594264615</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.219820710397244</v>
+        <v>3.360897211470501</v>
       </c>
       <c r="C20">
-        <v>0.294858060543433</v>
+        <v>0.3420254507713594</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1147894448823266</v>
+        <v>0.06028052734967559</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3398280538920062</v>
+        <v>0.3163165540363337</v>
       </c>
       <c r="H20">
-        <v>0.4919919835784015</v>
+        <v>0.2229383195328012</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2304624355685121</v>
+        <v>0.4206016930298091</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.046301337506208</v>
+        <v>0.8258330990256013</v>
       </c>
       <c r="O20">
-        <v>1.597835850452668</v>
+        <v>1.088899333751641</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.348167457285399</v>
+        <v>3.78666897804203</v>
       </c>
       <c r="C21">
-        <v>0.3020186972835717</v>
+        <v>0.3643172083875896</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1144011242456919</v>
+        <v>0.0633232993131827</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3427568967862129</v>
+        <v>0.3481509762768411</v>
       </c>
       <c r="H21">
-        <v>0.4891597052459247</v>
+        <v>0.2309800365180337</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2440854690402148</v>
+        <v>0.4732573027355613</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.047850575847733</v>
+        <v>0.8400989269345729</v>
       </c>
       <c r="O21">
-        <v>1.598402492955245</v>
+        <v>1.173640622960676</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.432016177386515</v>
+        <v>4.065865516941471</v>
       </c>
       <c r="C22">
-        <v>0.3067065646454807</v>
+        <v>0.3789177552170599</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1142057773570357</v>
+        <v>0.06545760084586405</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.3449458284580942</v>
+        <v>0.3700585319277252</v>
       </c>
       <c r="H22">
-        <v>0.4875443893371312</v>
+        <v>0.2368529777422026</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2530679641574096</v>
+        <v>0.5080491271787935</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.049223462214229</v>
+        <v>0.8504895266108008</v>
       </c>
       <c r="O22">
-        <v>1.599841076847071</v>
+        <v>1.232644723250189</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.387268168636865</v>
+        <v>3.916757813200832</v>
       </c>
       <c r="C23">
-        <v>0.3042038885604939</v>
+        <v>0.3711221127330333</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1143046908097425</v>
+        <v>0.06430459301032698</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.3437523544542813</v>
+        <v>0.3582595280186069</v>
       </c>
       <c r="H23">
-        <v>0.4883849391028434</v>
+        <v>0.2336594446376807</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2482666456890144</v>
+        <v>0.4894429884434004</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.048457827939117</v>
+        <v>0.8448426736611481</v>
       </c>
       <c r="O23">
-        <v>1.598975396376346</v>
+        <v>1.200804369784834</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.217722517635536</v>
+        <v>3.353951697568618</v>
       </c>
       <c r="C24">
-        <v>0.2947411710365913</v>
+        <v>0.3416616018655105</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1147967785736128</v>
+        <v>0.06023313175298384</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.339784808813036</v>
+        <v>0.3158136006945682</v>
       </c>
       <c r="H24">
-        <v>0.4920422545361447</v>
+        <v>0.2228167459545602</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.230241118069074</v>
+        <v>0.4197469156224969</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.046282116639063</v>
+        <v>0.8256171715955247</v>
       </c>
       <c r="O24">
-        <v>1.597844592747009</v>
+        <v>1.087571616077639</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.034755526531228</v>
+        <v>2.74990607327311</v>
       </c>
       <c r="C25">
-        <v>0.2845740741551737</v>
+        <v>0.3100042259368934</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1155785564558638</v>
+        <v>0.05641295965792459</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3366787826482849</v>
+        <v>0.2742157832904653</v>
       </c>
       <c r="H25">
-        <v>0.4969989424160985</v>
+        <v>0.2135271161787955</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2111412085871507</v>
+        <v>0.3459575523507539</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.045490117173998</v>
+        <v>0.8091204676991879</v>
       </c>
       <c r="O25">
-        <v>1.601197293615641</v>
+        <v>0.9793125274233745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.306685959831952</v>
+        <v>0.6630491958542279</v>
       </c>
       <c r="C2">
-        <v>0.2867789628169248</v>
+        <v>0.1283750730459587</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05403543709451952</v>
+        <v>0.5342434248882313</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.422345735007937</v>
       </c>
       <c r="G2">
-        <v>0.2466247334116574</v>
+        <v>0.229180071010866</v>
       </c>
       <c r="H2">
-        <v>0.2085050355461249</v>
+        <v>0.0006147374400196082</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0005099084588993108</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2401997338648272</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2238997421093121</v>
       </c>
       <c r="L2">
-        <v>0.2925690374026715</v>
+        <v>0.03908516576911047</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7165740962723817</v>
       </c>
       <c r="N2">
-        <v>0.8002692439459622</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9098176956965887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6446704280515263</v>
+      </c>
+      <c r="P2">
+        <v>0.7873533693103774</v>
+      </c>
+      <c r="Q2">
+        <v>0.9369326278901866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.006788202496807</v>
+        <v>0.5786064386824421</v>
       </c>
       <c r="C3">
-        <v>0.2710831675520353</v>
+        <v>0.117271044464303</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05266952674205427</v>
+        <v>0.477731217141816</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.313198389371564</v>
       </c>
       <c r="G3">
-        <v>0.2295610759575624</v>
+        <v>0.2254648774027359</v>
       </c>
       <c r="H3">
-        <v>0.2061197804853308</v>
+        <v>0.001502897709841466</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004172257712573568</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2420366325798042</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2276345622641518</v>
       </c>
       <c r="L3">
-        <v>0.2568595162173466</v>
+        <v>0.03630985627227901</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6291342359097456</v>
       </c>
       <c r="N3">
-        <v>0.7961643818273885</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8683001755802735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5640556245487929</v>
+      </c>
+      <c r="P3">
+        <v>0.8075973968665835</v>
+      </c>
+      <c r="Q3">
+        <v>0.9326727497813607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.822742081066878</v>
+        <v>0.5263930577320366</v>
       </c>
       <c r="C4">
-        <v>0.2614655736046387</v>
+        <v>0.1105323612478841</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05194375345088353</v>
+        <v>0.4430958568687515</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.246786574187368</v>
       </c>
       <c r="G4">
-        <v>0.2198103212400611</v>
+        <v>0.2234317258226923</v>
       </c>
       <c r="H4">
-        <v>0.2051217709116884</v>
+        <v>0.002272830349921096</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004673842374303128</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2433466729699347</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2300974288414857</v>
       </c>
       <c r="L4">
-        <v>0.2351316038009799</v>
+        <v>0.03458814556047862</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5752929670434952</v>
       </c>
       <c r="N4">
-        <v>0.79452839130645</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8453158216577776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5145998428940999</v>
+      </c>
+      <c r="P4">
+        <v>0.8205879677108889</v>
+      </c>
+      <c r="Q4">
+        <v>0.9309584959121224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.747746431104844</v>
+        <v>0.5044643696427329</v>
       </c>
       <c r="C5">
-        <v>0.2575510794597022</v>
+        <v>0.1080554753302039</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05167523840098021</v>
+        <v>0.4291318730873783</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.219513068818245</v>
       </c>
       <c r="G5">
-        <v>0.2160082045106364</v>
+        <v>0.222439390580071</v>
       </c>
       <c r="H5">
-        <v>0.2048273576318778</v>
+        <v>0.002641324774680376</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005798213001129149</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2438074418817351</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2309557902973474</v>
       </c>
       <c r="L5">
-        <v>0.2263222679282961</v>
+        <v>0.03388801358254767</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5533111320144855</v>
       </c>
       <c r="N5">
-        <v>0.7940771673654368</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8365456284178663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4945737063993008</v>
+      </c>
+      <c r="P5">
+        <v>0.8260975535166182</v>
+      </c>
+      <c r="Q5">
+        <v>0.9297578367428798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.735293219769204</v>
+        <v>0.5001324205317559</v>
       </c>
       <c r="C6">
-        <v>0.2569013627036156</v>
+        <v>0.1079537000995074</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05163226447145597</v>
+        <v>0.426982833526715</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.214562800056257</v>
       </c>
       <c r="G6">
-        <v>0.2153868978924791</v>
+        <v>0.2220049794287249</v>
       </c>
       <c r="H6">
-        <v>0.2047851092960116</v>
+        <v>0.0027065638607503</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00068841800226771</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2437426302656078</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2308727288383423</v>
       </c>
       <c r="L6">
-        <v>0.2248620645375041</v>
+        <v>0.03377941663539552</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5496579610623087</v>
       </c>
       <c r="N6">
-        <v>0.7940150588828061</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8351243708625589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4913966640037302</v>
+      </c>
+      <c r="P6">
+        <v>0.8271176451685029</v>
+      </c>
+      <c r="Q6">
+        <v>0.9286904803454235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.821730668448765</v>
+        <v>0.5242197329848466</v>
       </c>
       <c r="C7">
-        <v>0.2614127623569118</v>
+        <v>0.1113430686578667</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05194002333654879</v>
+        <v>0.4433700396625753</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.2452446256531</v>
       </c>
       <c r="G7">
-        <v>0.2197583651145365</v>
+        <v>0.2226725068516444</v>
       </c>
       <c r="H7">
-        <v>0.205117352205022</v>
+        <v>0.00227966111056499</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006956181417079321</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2429603863690843</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2294871039087116</v>
       </c>
       <c r="L7">
-        <v>0.2350126221203084</v>
+        <v>0.03460065826306113</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5749950958349359</v>
       </c>
       <c r="N7">
-        <v>0.7945214424769063</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8451951744920763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5147345441133098</v>
+      </c>
+      <c r="P7">
+        <v>0.8209375078159979</v>
+      </c>
+      <c r="Q7">
+        <v>0.928538349284608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.203250431438391</v>
+        <v>0.6314998462646315</v>
       </c>
       <c r="C8">
-        <v>0.2813628321199246</v>
+        <v>0.1256580209432911</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05354033366779554</v>
+        <v>0.5153586841769311</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.383026693284307</v>
       </c>
       <c r="G8">
-        <v>0.2405834793328125</v>
+        <v>0.2268628206235235</v>
       </c>
       <c r="H8">
-        <v>0.2075826667552931</v>
+        <v>0.0008744695048337192</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007288140795029818</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.240280038458458</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2243364014831375</v>
       </c>
       <c r="L8">
-        <v>0.2802123565781898</v>
+        <v>0.03816125286480876</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6864531861309189</v>
       </c>
       <c r="N8">
-        <v>0.7986660392745435</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8949607931078134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6174015512881112</v>
+      </c>
+      <c r="P8">
+        <v>0.7946286660073305</v>
+      </c>
+      <c r="Q8">
+        <v>0.9321091020378418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.953073407665045</v>
+        <v>0.8423710967981322</v>
       </c>
       <c r="C9">
-        <v>0.3206538276505455</v>
+        <v>0.1529116065469793</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05762855391565935</v>
+        <v>0.656376693247438</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.660655898301272</v>
       </c>
       <c r="G9">
-        <v>0.2877201346016278</v>
+        <v>0.2385026179263932</v>
       </c>
       <c r="H9">
-        <v>0.2163578473979584</v>
+        <v>1.26163589944106E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001355069099802542</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2372150206393684</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2167322223493962</v>
       </c>
       <c r="L9">
-        <v>0.3706511298253048</v>
+        <v>0.04498931944441509</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9039265788009345</v>
       </c>
       <c r="N9">
-        <v>0.8141429497710675</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.014082456643933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8185299714575223</v>
+      </c>
+      <c r="P9">
+        <v>0.7470622295912861</v>
+      </c>
+      <c r="Q9">
+        <v>0.9509104183432981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.50641870434589</v>
+        <v>0.9951766718834278</v>
       </c>
       <c r="C10">
-        <v>0.349647390997788</v>
+        <v>0.1735395201155541</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06129046796482029</v>
+        <v>0.7365014522090974</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>1.834526529288951</v>
       </c>
       <c r="G10">
-        <v>0.3269769883279565</v>
+        <v>0.2457185016864614</v>
       </c>
       <c r="H10">
-        <v>0.2255578989155111</v>
+        <v>0.0007992569220625079</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00254887405759785</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2345546084183923</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2105344116771377</v>
       </c>
       <c r="L10">
-        <v>0.4385422549856202</v>
+        <v>0.05094557674185474</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.063132789762932</v>
       </c>
       <c r="N10">
-        <v>0.8304842108202024</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.117127922471383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9465921496065377</v>
+      </c>
+      <c r="P10">
+        <v>0.7171100151569014</v>
+      </c>
+      <c r="Q10">
+        <v>0.961004189053881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.759028606141101</v>
+        <v>1.066547517499799</v>
       </c>
       <c r="C11">
-        <v>0.3628709447055058</v>
+        <v>0.1811310156553247</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06311782173149183</v>
+        <v>0.5760699360356014</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.629908812866077</v>
       </c>
       <c r="G11">
-        <v>0.3460257549225219</v>
+        <v>0.2273947647626713</v>
       </c>
       <c r="H11">
-        <v>0.2304237912655367</v>
+        <v>0.01922234902288977</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003439770179884505</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2225924111731743</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1965315895886874</v>
       </c>
       <c r="L11">
-        <v>0.469824033262114</v>
+        <v>0.06726677403324999</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.134801897713345</v>
       </c>
       <c r="N11">
-        <v>0.8391134703852998</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.167944070247671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8330202611384934</v>
+      </c>
+      <c r="P11">
+        <v>0.7225285479582837</v>
+      </c>
+      <c r="Q11">
+        <v>0.8972361179461217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.854843475885843</v>
+        <v>1.097969454184408</v>
       </c>
       <c r="C12">
-        <v>0.367883794747641</v>
+        <v>0.1817299241819512</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06383465191532167</v>
+        <v>0.441878527982098</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.432971265427057</v>
       </c>
       <c r="G12">
-        <v>0.3534267169193441</v>
+        <v>0.2117318989530119</v>
       </c>
       <c r="H12">
-        <v>0.2323716434962506</v>
+        <v>0.05771551395906727</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003530943731131053</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.213631468420445</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1871261515226585</v>
       </c>
       <c r="L12">
-        <v>0.4817340479716705</v>
+        <v>0.08677085817323871</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.161742406081459</v>
       </c>
       <c r="N12">
-        <v>0.8425633537421362</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.187803821537017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7168560290970234</v>
+      </c>
+      <c r="P12">
+        <v>0.7350802922789583</v>
+      </c>
+      <c r="Q12">
+        <v>0.845302195789742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.834200562629007</v>
+        <v>1.097210756169204</v>
       </c>
       <c r="C13">
-        <v>0.3668039408079693</v>
+        <v>0.1783317220163951</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06367913757909704</v>
+        <v>0.3213395555140579</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.229448996690294</v>
       </c>
       <c r="G13">
-        <v>0.3518241707801195</v>
+        <v>0.1959864656270298</v>
       </c>
       <c r="H13">
-        <v>0.2319473355759385</v>
+        <v>0.1132671145849002</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003333734157320301</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2058003901085641</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1796894574069192</v>
       </c>
       <c r="L13">
-        <v>0.4791660361342736</v>
+        <v>0.1095676885077665</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.155582835816688</v>
       </c>
       <c r="N13">
-        <v>0.841812087369334</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.183498402937801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5933726133929369</v>
+      </c>
+      <c r="P13">
+        <v>0.7537610314143208</v>
+      </c>
+      <c r="Q13">
+        <v>0.7954899869687893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.766908033212815</v>
+        <v>1.081485824677628</v>
       </c>
       <c r="C14">
-        <v>0.3632832443248759</v>
+        <v>0.1744263691029744</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06317628809153319</v>
+        <v>0.2463934040077334</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.086433955173533</v>
       </c>
       <c r="G14">
-        <v>0.346630778820824</v>
+        <v>0.1848676649738579</v>
       </c>
       <c r="H14">
-        <v>0.2305818891278335</v>
+        <v>0.162498560102506</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00314876010819809</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2007752807451126</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1752878103370019</v>
       </c>
       <c r="L14">
-        <v>0.4708025466781152</v>
+        <v>0.1277521252087084</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.136278690706007</v>
       </c>
       <c r="N14">
-        <v>0.8393935823667533</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.169565283579658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5055432849934078</v>
+      </c>
+      <c r="P14">
+        <v>0.7698609172756861</v>
+      </c>
+      <c r="Q14">
+        <v>0.7613403583487752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.725710756800652</v>
+        <v>1.069926257207442</v>
       </c>
       <c r="C15">
-        <v>0.3611274307867518</v>
+        <v>0.172983147114536</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06287156440176389</v>
+        <v>0.2288660205911768</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.04879306498178</v>
       </c>
       <c r="G15">
-        <v>0.3434746133320346</v>
+        <v>0.1818985240600384</v>
       </c>
       <c r="H15">
-        <v>0.2297594462292807</v>
+        <v>0.174970358047446</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003151935701408703</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1996754247842532</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1744364071383622</v>
       </c>
       <c r="L15">
-        <v>0.4656882581269599</v>
+        <v>0.1319560111502085</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.124503804203272</v>
       </c>
       <c r="N15">
-        <v>0.837936217489343</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.161112713951468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4819744032253013</v>
+      </c>
+      <c r="P15">
+        <v>0.7750048205665721</v>
+      </c>
+      <c r="Q15">
+        <v>0.7527135135987066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.489930394061389</v>
+        <v>1.002920899948521</v>
       </c>
       <c r="C16">
-        <v>0.3487839271284656</v>
+        <v>0.165334547285525</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06117443308940551</v>
+        <v>0.2225179528906622</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.019157289609197</v>
       </c>
       <c r="G16">
-        <v>0.3257574425378067</v>
+        <v>0.1814921969441059</v>
       </c>
       <c r="H16">
-        <v>0.2252542174671106</v>
+        <v>0.1620921830014197</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002767748645373658</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2020459505025087</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1780774386573132</v>
       </c>
       <c r="L16">
-        <v>0.4365065161397865</v>
+        <v>0.1240315336296263</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.057090804667922</v>
       </c>
       <c r="N16">
-        <v>0.8299451875681996</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.113890470629059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4558869473268103</v>
+      </c>
+      <c r="P16">
+        <v>0.7823525281622636</v>
+      </c>
+      <c r="Q16">
+        <v>0.7566659569050671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.345534730002498</v>
+        <v>0.9599064053783479</v>
       </c>
       <c r="C17">
-        <v>0.3412206617260267</v>
+        <v>0.1615906329869148</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0601757950109203</v>
+        <v>0.2552536737457487</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>1.070704646738889</v>
       </c>
       <c r="G17">
-        <v>0.3152048148060942</v>
+        <v>0.1870692425844709</v>
       </c>
       <c r="H17">
-        <v>0.2226698433054821</v>
+        <v>0.1242527317620983</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002602468147962611</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2065540388016274</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1832108474192768</v>
       </c>
       <c r="L17">
-        <v>0.4187112326160616</v>
+        <v>0.1078344984729327</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.015747728470245</v>
       </c>
       <c r="N17">
-        <v>0.8253562500068057</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.085965029805834</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4812555325140693</v>
+      </c>
+      <c r="P17">
+        <v>0.7796655396776302</v>
+      </c>
+      <c r="Q17">
+        <v>0.7778431396322247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.262564105795889</v>
+        <v>0.9343681163013002</v>
       </c>
       <c r="C18">
-        <v>0.3368736634791958</v>
+        <v>0.1600142380895733</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05961650617812708</v>
+        <v>0.3347568482668208</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.204773775415532</v>
       </c>
       <c r="G18">
-        <v>0.3092462469651736</v>
+        <v>0.1990752178058059</v>
       </c>
       <c r="H18">
-        <v>0.2212469864745685</v>
+        <v>0.07139133805015518</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002317233187870471</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2136967090003026</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1907168018267971</v>
       </c>
       <c r="L18">
-        <v>0.4085128438702981</v>
+        <v>0.08582156585317335</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9920666953125306</v>
       </c>
       <c r="N18">
-        <v>0.8228286928802078</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.070270738000318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5576749152004439</v>
+      </c>
+      <c r="P18">
+        <v>0.7683986384905097</v>
+      </c>
+      <c r="Q18">
+        <v>0.8182152066312227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.234484905309785</v>
+        <v>0.9210761532127947</v>
       </c>
       <c r="C19">
-        <v>0.335402379861236</v>
+        <v>0.1619716525645885</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05942968634987977</v>
+        <v>0.4617802411355569</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>1.404104246439644</v>
       </c>
       <c r="G19">
-        <v>0.3072473644452884</v>
+        <v>0.2145425067950484</v>
       </c>
       <c r="H19">
-        <v>0.2207759397986706</v>
+        <v>0.02616099697223717</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002466974643894559</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2219128681979257</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1988800723718747</v>
       </c>
       <c r="L19">
-        <v>0.4050659891513249</v>
+        <v>0.06561798098487159</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.9842946078347552</v>
       </c>
       <c r="N19">
-        <v>0.821991818668792</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.065018594264615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6772332703605741</v>
+      </c>
+      <c r="P19">
+        <v>0.7536438411987447</v>
+      </c>
+      <c r="Q19">
+        <v>0.8682163977138941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.360897211470501</v>
+        <v>0.9491762529277707</v>
       </c>
       <c r="C20">
-        <v>0.3420254507713594</v>
+        <v>0.1708125526041329</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06028052734967559</v>
+        <v>0.7158629204677425</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.783570843621931</v>
       </c>
       <c r="G20">
-        <v>0.3163165540363337</v>
+        <v>0.2413340868689176</v>
       </c>
       <c r="H20">
-        <v>0.2229383195328012</v>
+        <v>0.0004840840446775907</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002917489784772798</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2339488772473857</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.210181744488704</v>
       </c>
       <c r="L20">
-        <v>0.4206016930298091</v>
+        <v>0.04949346561725143</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.021348770823181</v>
       </c>
       <c r="N20">
-        <v>0.8258330990256013</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.088899333751641</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9133622445200942</v>
+      </c>
+      <c r="P20">
+        <v>0.7260656260056102</v>
+      </c>
+      <c r="Q20">
+        <v>0.9503446603758761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.78666897804203</v>
+        <v>1.066202555276675</v>
       </c>
       <c r="C21">
-        <v>0.3643172083875896</v>
+        <v>0.1868794070248185</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0633232993131827</v>
+        <v>0.8150517897616822</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.97114936717351</v>
       </c>
       <c r="G21">
-        <v>0.3481509762768411</v>
+        <v>0.2516473304014184</v>
       </c>
       <c r="H21">
-        <v>0.2309800365180337</v>
+        <v>0.0014077590027608</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003932964888561763</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2343734387840755</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2080685213419713</v>
       </c>
       <c r="L21">
-        <v>0.4732573027355613</v>
+        <v>0.05256744647265421</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.143532012269532</v>
       </c>
       <c r="N21">
-        <v>0.8400989269345729</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.173640622960676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.043341465686154</v>
+      </c>
+      <c r="P21">
+        <v>0.701183741840584</v>
+      </c>
+      <c r="Q21">
+        <v>0.9733780304877371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.065865516941471</v>
+        <v>1.14518318191142</v>
       </c>
       <c r="C22">
-        <v>0.3789177552170599</v>
+        <v>0.1961739271042688</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06545760084586405</v>
+        <v>0.8670504622699298</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.079196939939493</v>
       </c>
       <c r="G22">
-        <v>0.3700585319277252</v>
+        <v>0.2584259938925513</v>
       </c>
       <c r="H22">
-        <v>0.2368529777422026</v>
+        <v>0.00234793527901167</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004436438299944001</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2347299160613119</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2070208828172575</v>
       </c>
       <c r="L22">
-        <v>0.5080491271787935</v>
+        <v>0.05504026737091117</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.223320694402531</v>
       </c>
       <c r="N22">
-        <v>0.8504895266108008</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.232644723250189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.117529117699334</v>
+      </c>
+      <c r="P22">
+        <v>0.6858979702773595</v>
+      </c>
+      <c r="Q22">
+        <v>0.9886718073422429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.916757813200832</v>
+        <v>1.105343646481913</v>
       </c>
       <c r="C23">
-        <v>0.3711221127330333</v>
+        <v>0.1901529870402072</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06430459301032698</v>
+        <v>0.8387181485150279</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.022814884030382</v>
       </c>
       <c r="G23">
-        <v>0.3582595280186069</v>
+        <v>0.2556395914184577</v>
       </c>
       <c r="H23">
-        <v>0.2336594446376807</v>
+        <v>0.001819963060716301</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003874783408564397</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2349660652625687</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2082630712310731</v>
       </c>
       <c r="L23">
-        <v>0.4894429884434004</v>
+        <v>0.05369202201194234</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.180740092175796</v>
       </c>
       <c r="N23">
-        <v>0.8448426736611481</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.200804369784834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.077428379730826</v>
+      </c>
+      <c r="P23">
+        <v>0.6935057736392984</v>
+      </c>
+      <c r="Q23">
+        <v>0.9831657537386747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.353951697568618</v>
+        <v>0.9502867731582114</v>
       </c>
       <c r="C24">
-        <v>0.3416616018655105</v>
+        <v>0.1692555538463836</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06023313175298384</v>
+        <v>0.7327078821927557</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.809170286817775</v>
       </c>
       <c r="G24">
-        <v>0.3158136006945682</v>
+        <v>0.2444178215957891</v>
       </c>
       <c r="H24">
-        <v>0.2228167459545602</v>
+        <v>0.0004073654531220328</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002459423723146337</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2355878979008281</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2122769091858245</v>
       </c>
       <c r="L24">
-        <v>0.4197469156224969</v>
+        <v>0.04864225859720328</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.019421349669784</v>
       </c>
       <c r="N24">
-        <v>0.8256171715955247</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.087571616077639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9267257971703202</v>
+      </c>
+      <c r="P24">
+        <v>0.7243580727830476</v>
+      </c>
+      <c r="Q24">
+        <v>0.9603138477693278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.74990607327311</v>
+        <v>0.7821728096254219</v>
       </c>
       <c r="C25">
-        <v>0.3100042259368934</v>
+        <v>0.1470211398813746</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05641295965792459</v>
+        <v>0.6189762237376186</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.582777473894524</v>
       </c>
       <c r="G25">
-        <v>0.2742157832904653</v>
+        <v>0.2337762907674872</v>
       </c>
       <c r="H25">
-        <v>0.2135271161787955</v>
+        <v>2.678833579738971E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001476367378288046</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2371817682792425</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.217535416701466</v>
       </c>
       <c r="L25">
-        <v>0.3459575523507539</v>
+        <v>0.04319214303492913</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8451904198670661</v>
       </c>
       <c r="N25">
-        <v>0.8091204676991879</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9793125274233745</v>
+        <v>0.7647728278374188</v>
+      </c>
+      <c r="P25">
+        <v>0.7600639117389143</v>
+      </c>
+      <c r="Q25">
+        <v>0.9406779216658947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6630491958542279</v>
+        <v>0.6472136284000385</v>
       </c>
       <c r="C2">
-        <v>0.1283750730459587</v>
+        <v>0.1292968192033044</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5342434248882313</v>
+        <v>0.540385289531514</v>
       </c>
       <c r="F2">
-        <v>1.422345735007937</v>
+        <v>1.408880711042897</v>
       </c>
       <c r="G2">
-        <v>0.229180071010866</v>
+        <v>0.2022759021769431</v>
       </c>
       <c r="H2">
-        <v>0.0006147374400196082</v>
+        <v>0.0005820570454890817</v>
       </c>
       <c r="I2">
-        <v>0.0005099084588993108</v>
+        <v>0.0007040087990635158</v>
       </c>
       <c r="J2">
-        <v>0.2401997338648272</v>
+        <v>0.2668192937066962</v>
       </c>
       <c r="K2">
-        <v>0.2238997421093121</v>
+        <v>0.2108918070007437</v>
       </c>
       <c r="L2">
-        <v>0.03908516576911047</v>
+        <v>0.122171720368641</v>
       </c>
       <c r="M2">
-        <v>0.7165740962723817</v>
+        <v>0.04646500589198244</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03908415192039705</v>
       </c>
       <c r="O2">
-        <v>0.6446704280515263</v>
+        <v>0.7168032195277902</v>
       </c>
       <c r="P2">
-        <v>0.7873533693103774</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9369326278901866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6495413737029523</v>
+      </c>
+      <c r="R2">
+        <v>0.7810932191444451</v>
+      </c>
+      <c r="S2">
+        <v>0.9023855944757173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5786064386824421</v>
+        <v>0.5684571869571187</v>
       </c>
       <c r="C3">
-        <v>0.117271044464303</v>
+        <v>0.1153112250275825</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.477731217141816</v>
+        <v>0.482882291061614</v>
       </c>
       <c r="F3">
-        <v>1.313198389371564</v>
+        <v>1.302669212718513</v>
       </c>
       <c r="G3">
-        <v>0.2254648774027359</v>
+        <v>0.2002746916987945</v>
       </c>
       <c r="H3">
-        <v>0.001502897709841466</v>
+        <v>0.001433448662102599</v>
       </c>
       <c r="I3">
-        <v>0.0004172257712573568</v>
+        <v>0.000529070676716259</v>
       </c>
       <c r="J3">
-        <v>0.2420366325798042</v>
+        <v>0.2675216181601883</v>
       </c>
       <c r="K3">
-        <v>0.2276345622641518</v>
+        <v>0.215184880984097</v>
       </c>
       <c r="L3">
-        <v>0.03630985627227901</v>
+        <v>0.1268763128378048</v>
       </c>
       <c r="M3">
-        <v>0.6291342359097456</v>
+        <v>0.04647055491587526</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03619425483229222</v>
       </c>
       <c r="O3">
-        <v>0.5640556245487929</v>
+        <v>0.6296520050708097</v>
       </c>
       <c r="P3">
-        <v>0.8075973968665835</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9326727497813607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5678315491654331</v>
+      </c>
+      <c r="R3">
+        <v>0.7983620190641432</v>
+      </c>
+      <c r="S3">
+        <v>0.9017438686798585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5263930577320366</v>
+        <v>0.5196129333374984</v>
       </c>
       <c r="C4">
-        <v>0.1105323612478841</v>
+        <v>0.106876138475485</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4430958568687515</v>
+        <v>0.4476736467779858</v>
       </c>
       <c r="F4">
-        <v>1.246786574187368</v>
+        <v>1.237983759908118</v>
       </c>
       <c r="G4">
-        <v>0.2234317258226923</v>
+        <v>0.1992904529797244</v>
       </c>
       <c r="H4">
-        <v>0.002272830349921096</v>
+        <v>0.002173163278132439</v>
       </c>
       <c r="I4">
-        <v>0.0004673842374303128</v>
+        <v>0.0005150400988154225</v>
       </c>
       <c r="J4">
-        <v>0.2433466729699347</v>
+        <v>0.26802396188193</v>
       </c>
       <c r="K4">
-        <v>0.2300974288414857</v>
+        <v>0.2179410726303015</v>
       </c>
       <c r="L4">
-        <v>0.03458814556047862</v>
+        <v>0.1299413352065208</v>
       </c>
       <c r="M4">
-        <v>0.5752929670434952</v>
+        <v>0.04689082663051281</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03440544926704803</v>
       </c>
       <c r="O4">
-        <v>0.5145998428940999</v>
+        <v>0.575975883724297</v>
       </c>
       <c r="P4">
-        <v>0.8205879677108889</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9309584959121224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5177215721225252</v>
+      </c>
+      <c r="R4">
+        <v>0.8095528446090157</v>
+      </c>
+      <c r="S4">
+        <v>0.9020479922194511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5044643696427329</v>
+        <v>0.4990300033877304</v>
       </c>
       <c r="C5">
-        <v>0.1080554753302039</v>
+        <v>0.1037402133386323</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4291318730873783</v>
+        <v>0.4334862996097897</v>
       </c>
       <c r="F5">
-        <v>1.219513068818245</v>
+        <v>1.211394364048061</v>
       </c>
       <c r="G5">
-        <v>0.222439390580071</v>
+        <v>0.1987310860602847</v>
       </c>
       <c r="H5">
-        <v>0.002641324774680376</v>
+        <v>0.002527482533953629</v>
       </c>
       <c r="I5">
-        <v>0.0005798213001129149</v>
+        <v>0.0006104297109281731</v>
       </c>
       <c r="J5">
-        <v>0.2438074418817351</v>
+        <v>0.2681231907578692</v>
       </c>
       <c r="K5">
-        <v>0.2309557902973474</v>
+        <v>0.2189129206754803</v>
       </c>
       <c r="L5">
-        <v>0.03388801358254767</v>
+        <v>0.1311276117466704</v>
       </c>
       <c r="M5">
-        <v>0.5533111320144855</v>
+        <v>0.04713593057910614</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0336791628979114</v>
       </c>
       <c r="O5">
-        <v>0.4945737063993008</v>
+        <v>0.5540592522095835</v>
       </c>
       <c r="P5">
-        <v>0.8260975535166182</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9297578367428798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4974345321150508</v>
+      </c>
+      <c r="R5">
+        <v>0.8143461414463893</v>
+      </c>
+      <c r="S5">
+        <v>0.9016286351576071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5001324205317559</v>
+        <v>0.4949236731900299</v>
       </c>
       <c r="C6">
-        <v>0.1079537000995074</v>
+        <v>0.1035477670484823</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.426982833526715</v>
+        <v>0.4313024969169703</v>
       </c>
       <c r="F6">
-        <v>1.214562800056257</v>
+        <v>1.206555790886128</v>
       </c>
       <c r="G6">
-        <v>0.2220049794287249</v>
+        <v>0.1983768860770567</v>
       </c>
       <c r="H6">
-        <v>0.0027065638607503</v>
+        <v>0.002590218393239807</v>
       </c>
       <c r="I6">
-        <v>0.00068841800226771</v>
+        <v>0.0007326470147779318</v>
       </c>
       <c r="J6">
-        <v>0.2437426302656078</v>
+        <v>0.2679904394670629</v>
       </c>
       <c r="K6">
-        <v>0.2308727288383423</v>
+        <v>0.2188557093683503</v>
       </c>
       <c r="L6">
-        <v>0.03377941663539552</v>
+        <v>0.1311971821353524</v>
       </c>
       <c r="M6">
-        <v>0.5496579610623087</v>
+        <v>0.04714489510423325</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03356673496654139</v>
       </c>
       <c r="O6">
-        <v>0.4913966640037302</v>
+        <v>0.550417334612419</v>
       </c>
       <c r="P6">
-        <v>0.8271176451685029</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9286904803454235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4942156083484193</v>
+      </c>
+      <c r="R6">
+        <v>0.8152603965583651</v>
+      </c>
+      <c r="S6">
+        <v>0.9006991642113178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5242197329848466</v>
+        <v>0.5171507892744671</v>
       </c>
       <c r="C7">
-        <v>0.1113430686578667</v>
+        <v>0.1075167346376702</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4433700396625753</v>
+        <v>0.4483186485911261</v>
       </c>
       <c r="F7">
-        <v>1.2452446256531</v>
+        <v>1.235765855111197</v>
       </c>
       <c r="G7">
-        <v>0.2226725068516444</v>
+        <v>0.2003691687578808</v>
       </c>
       <c r="H7">
-        <v>0.00227966111056499</v>
+        <v>0.002181238730689428</v>
       </c>
       <c r="I7">
-        <v>0.0006956181417079321</v>
+        <v>0.0007860984702112717</v>
       </c>
       <c r="J7">
-        <v>0.2429603863690843</v>
+        <v>0.2649431369417528</v>
       </c>
       <c r="K7">
-        <v>0.2294871039087116</v>
+        <v>0.2171456877209508</v>
       </c>
       <c r="L7">
-        <v>0.03460065826306113</v>
+        <v>0.1294951498880916</v>
       </c>
       <c r="M7">
-        <v>0.5749950958349359</v>
+        <v>0.0467385741014219</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03443391268689489</v>
       </c>
       <c r="O7">
-        <v>0.5147345441133098</v>
+        <v>0.5750619054801689</v>
       </c>
       <c r="P7">
-        <v>0.8209375078159979</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.928538349284608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5179293050268612</v>
+      </c>
+      <c r="R7">
+        <v>0.8100917827351566</v>
+      </c>
+      <c r="S7">
+        <v>0.8981825529636467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6314998462646315</v>
+        <v>0.6166064723534532</v>
       </c>
       <c r="C8">
-        <v>0.1256580209432911</v>
+        <v>0.1249344354678072</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5153586841769311</v>
+        <v>0.5223985714857591</v>
       </c>
       <c r="F8">
-        <v>1.383026693284307</v>
+        <v>1.368317392595728</v>
       </c>
       <c r="G8">
-        <v>0.2268628206235235</v>
+        <v>0.2066468646198629</v>
       </c>
       <c r="H8">
-        <v>0.0008744695048337192</v>
+        <v>0.0008335672437012054</v>
       </c>
       <c r="I8">
-        <v>0.0007288140795029818</v>
+        <v>0.0009495305034228352</v>
       </c>
       <c r="J8">
-        <v>0.240280038458458</v>
+        <v>0.2579107082615977</v>
       </c>
       <c r="K8">
-        <v>0.2243364014831375</v>
+        <v>0.2108923915605523</v>
       </c>
       <c r="L8">
-        <v>0.03816125286480876</v>
+        <v>0.1230202002079306</v>
       </c>
       <c r="M8">
-        <v>0.6864531861309189</v>
+        <v>0.04600702366924825</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.03817406538319901</v>
       </c>
       <c r="O8">
-        <v>0.6174015512881112</v>
+        <v>0.6847132957530704</v>
       </c>
       <c r="P8">
-        <v>0.7946286660073305</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9321091020378418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6221401446559724</v>
+      </c>
+      <c r="R8">
+        <v>0.7880120044014376</v>
+      </c>
+      <c r="S8">
+        <v>0.8940140002755044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8423710967981322</v>
+        <v>0.8122640947866273</v>
       </c>
       <c r="C9">
-        <v>0.1529116065469793</v>
+        <v>0.1595187476859792</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.656376693247438</v>
+        <v>0.6664438485582878</v>
       </c>
       <c r="F9">
-        <v>1.660655898301272</v>
+        <v>1.637546450331882</v>
       </c>
       <c r="G9">
-        <v>0.2385026179263932</v>
+        <v>0.2156448422096631</v>
       </c>
       <c r="H9">
-        <v>1.26163589944106E-05</v>
+        <v>1.348490837971283E-05</v>
       </c>
       <c r="I9">
-        <v>0.001355069099802542</v>
+        <v>0.001642071272358159</v>
       </c>
       <c r="J9">
-        <v>0.2372150206393684</v>
+        <v>0.2547493189086154</v>
       </c>
       <c r="K9">
-        <v>0.2167322223493962</v>
+        <v>0.2014257054376163</v>
       </c>
       <c r="L9">
-        <v>0.04498931944441509</v>
+        <v>0.1126771516194243</v>
       </c>
       <c r="M9">
-        <v>0.9039265788009345</v>
+        <v>0.04831291126517634</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.04532177220248101</v>
       </c>
       <c r="O9">
-        <v>0.8185299714575223</v>
+        <v>0.9007662567312593</v>
       </c>
       <c r="P9">
-        <v>0.7470622295912861</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9509104183432981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8261572462500908</v>
+      </c>
+      <c r="R9">
+        <v>0.7482661533380686</v>
+      </c>
+      <c r="S9">
+        <v>0.901281426657107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9951766718834278</v>
+        <v>0.9517068628622383</v>
       </c>
       <c r="C10">
-        <v>0.1735395201155541</v>
+        <v>0.1844305635630263</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7365014522090974</v>
+        <v>0.7508733814652402</v>
       </c>
       <c r="F10">
-        <v>1.834526529288951</v>
+        <v>1.801369899897907</v>
       </c>
       <c r="G10">
-        <v>0.2457185016864614</v>
+        <v>0.2321200352372799</v>
       </c>
       <c r="H10">
-        <v>0.0007992569220625079</v>
+        <v>0.0007819389278465039</v>
       </c>
       <c r="I10">
-        <v>0.00254887405759785</v>
+        <v>0.002810952103864395</v>
       </c>
       <c r="J10">
-        <v>0.2345546084183923</v>
+        <v>0.2379773422322629</v>
       </c>
       <c r="K10">
-        <v>0.2105344116771377</v>
+        <v>0.1927334284256759</v>
       </c>
       <c r="L10">
-        <v>0.05094557674185474</v>
+        <v>0.105103025875497</v>
       </c>
       <c r="M10">
-        <v>1.063132789762932</v>
+        <v>0.05103916728495506</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.05173565026183979</v>
       </c>
       <c r="O10">
-        <v>0.9465921496065377</v>
+        <v>1.055093544265759</v>
       </c>
       <c r="P10">
-        <v>0.7171100151569014</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.961004189053881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9566643939012494</v>
+      </c>
+      <c r="R10">
+        <v>0.7258221110804612</v>
+      </c>
+      <c r="S10">
+        <v>0.8942830706885729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.066547517499799</v>
+        <v>1.016633499367742</v>
       </c>
       <c r="C11">
-        <v>0.1811310156553247</v>
+        <v>0.1900679615766308</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5760699360356014</v>
+        <v>0.5926297098296303</v>
       </c>
       <c r="F11">
-        <v>1.629908812866077</v>
+        <v>1.590801335391276</v>
       </c>
       <c r="G11">
-        <v>0.2273947647626713</v>
+        <v>0.2382974679282199</v>
       </c>
       <c r="H11">
-        <v>0.01922234902288977</v>
+        <v>0.01919599205602296</v>
       </c>
       <c r="I11">
-        <v>0.003439770179884505</v>
+        <v>0.00374512306960284</v>
       </c>
       <c r="J11">
-        <v>0.2225924111731743</v>
+        <v>0.2048020205721848</v>
       </c>
       <c r="K11">
-        <v>0.1965315895886874</v>
+        <v>0.1779699834024644</v>
       </c>
       <c r="L11">
-        <v>0.06726677403324999</v>
+        <v>0.09831108257872145</v>
       </c>
       <c r="M11">
-        <v>1.134801897713345</v>
+        <v>0.04781967617419802</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06966627524623448</v>
       </c>
       <c r="O11">
-        <v>0.8330202611384934</v>
+        <v>1.117961216882833</v>
       </c>
       <c r="P11">
-        <v>0.7225285479582837</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8972361179461217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8433268485083687</v>
+      </c>
+      <c r="R11">
+        <v>0.7399949992202863</v>
+      </c>
+      <c r="S11">
+        <v>0.8170570975338478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.097969454184408</v>
+        <v>1.046650354706884</v>
       </c>
       <c r="C12">
-        <v>0.1817299241819512</v>
+        <v>0.1887540276310915</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.441878527982098</v>
+        <v>0.4574447898778757</v>
       </c>
       <c r="F12">
-        <v>1.432971265427057</v>
+        <v>1.39397653001258</v>
       </c>
       <c r="G12">
-        <v>0.2117318989530119</v>
+        <v>0.2336938781257203</v>
       </c>
       <c r="H12">
-        <v>0.05771551395906727</v>
+        <v>0.05769189514887074</v>
       </c>
       <c r="I12">
-        <v>0.003530943731131053</v>
+        <v>0.003813093490002473</v>
       </c>
       <c r="J12">
-        <v>0.213631468420445</v>
+        <v>0.1912037967275211</v>
       </c>
       <c r="K12">
-        <v>0.1871261515226585</v>
+        <v>0.1691851369266075</v>
       </c>
       <c r="L12">
-        <v>0.08677085817323871</v>
+        <v>0.09491624141803712</v>
       </c>
       <c r="M12">
-        <v>1.161742406081459</v>
+        <v>0.04503610012043957</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09053545273336283</v>
       </c>
       <c r="O12">
-        <v>0.7168560290970234</v>
+        <v>1.140732908438054</v>
       </c>
       <c r="P12">
-        <v>0.7350802922789583</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.845302195789742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7265302102912159</v>
+      </c>
+      <c r="R12">
+        <v>0.7576953905374069</v>
+      </c>
+      <c r="S12">
+        <v>0.7632333533246367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.097210756169204</v>
+        <v>1.049364175963063</v>
       </c>
       <c r="C13">
-        <v>0.1783317220163951</v>
+        <v>0.1840739465195469</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3213395555140579</v>
+        <v>0.3334474920969726</v>
       </c>
       <c r="F13">
-        <v>1.229448996690294</v>
+        <v>1.195933652199002</v>
       </c>
       <c r="G13">
-        <v>0.1959864656270298</v>
+        <v>0.2144690443860924</v>
       </c>
       <c r="H13">
-        <v>0.1132671145849002</v>
+        <v>0.1132536065912291</v>
       </c>
       <c r="I13">
-        <v>0.003333734157320301</v>
+        <v>0.003626431227742977</v>
       </c>
       <c r="J13">
-        <v>0.2058003901085641</v>
+        <v>0.1893246325191491</v>
       </c>
       <c r="K13">
-        <v>0.1796894574069192</v>
+        <v>0.1637440743869831</v>
       </c>
       <c r="L13">
-        <v>0.1095676885077665</v>
+        <v>0.09332025696663138</v>
       </c>
       <c r="M13">
-        <v>1.155582835816688</v>
+        <v>0.04232188241248025</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1141145261591632</v>
       </c>
       <c r="O13">
-        <v>0.5933726133929369</v>
+        <v>1.135571489696673</v>
       </c>
       <c r="P13">
-        <v>0.7537610314143208</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.7954899869687893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6016511125982618</v>
+      </c>
+      <c r="R13">
+        <v>0.7773676561622551</v>
+      </c>
+      <c r="S13">
+        <v>0.7226035068891434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.081485824677628</v>
+        <v>1.038264078016397</v>
       </c>
       <c r="C14">
-        <v>0.1744263691029744</v>
+        <v>0.1795461270433378</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2463934040077334</v>
+        <v>0.2554733201252617</v>
       </c>
       <c r="F14">
-        <v>1.086433955173533</v>
+        <v>1.058597591738021</v>
       </c>
       <c r="G14">
-        <v>0.1848676649738579</v>
+        <v>0.1953451407907281</v>
       </c>
       <c r="H14">
-        <v>0.162498560102506</v>
+        <v>0.1624925823259957</v>
       </c>
       <c r="I14">
-        <v>0.00314876010819809</v>
+        <v>0.003477255352544617</v>
       </c>
       <c r="J14">
-        <v>0.2007752807451126</v>
+        <v>0.1921779532353547</v>
       </c>
       <c r="K14">
-        <v>0.1752878103370019</v>
+        <v>0.1612259922639989</v>
       </c>
       <c r="L14">
-        <v>0.1277521252087084</v>
+        <v>0.09285641047336135</v>
       </c>
       <c r="M14">
-        <v>1.136278690706007</v>
+        <v>0.04045261329012995</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1324199113730984</v>
       </c>
       <c r="O14">
-        <v>0.5055432849934078</v>
+        <v>1.119243164393794</v>
       </c>
       <c r="P14">
-        <v>0.7698609172756861</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7613403583487752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5125779408815916</v>
+      </c>
+      <c r="R14">
+        <v>0.7919598020693712</v>
+      </c>
+      <c r="S14">
+        <v>0.6990632537369947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.069926257207442</v>
+        <v>1.028801523298711</v>
       </c>
       <c r="C15">
-        <v>0.172983147114536</v>
+        <v>0.1780652038733734</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2288660205911768</v>
+        <v>0.2369628726692596</v>
       </c>
       <c r="F15">
-        <v>1.04879306498178</v>
+        <v>1.023133367910077</v>
       </c>
       <c r="G15">
-        <v>0.1818985240600384</v>
+        <v>0.1881900918634045</v>
       </c>
       <c r="H15">
-        <v>0.174970358047446</v>
+        <v>0.1749668248464786</v>
       </c>
       <c r="I15">
-        <v>0.003151935701408703</v>
+        <v>0.003517481949296908</v>
       </c>
       <c r="J15">
-        <v>0.1996754247842532</v>
+        <v>0.1947745698729157</v>
       </c>
       <c r="K15">
-        <v>0.1744364071383622</v>
+        <v>0.1610587166453712</v>
       </c>
       <c r="L15">
-        <v>0.1319560111502085</v>
+        <v>0.09299408194367764</v>
       </c>
       <c r="M15">
-        <v>1.124503804203272</v>
+        <v>0.03995101782761168</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1364710861911789</v>
       </c>
       <c r="O15">
-        <v>0.4819744032253013</v>
+        <v>1.109166305650973</v>
       </c>
       <c r="P15">
-        <v>0.7750048205665721</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7527135135987066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4885847187315449</v>
+      </c>
+      <c r="R15">
+        <v>0.795813157530155</v>
+      </c>
+      <c r="S15">
+        <v>0.6948388620684796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.002920899948521</v>
+        <v>0.970101718533158</v>
       </c>
       <c r="C16">
-        <v>0.165334547285525</v>
+        <v>0.1709381782370372</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2225179528906622</v>
+        <v>0.2281767762308959</v>
       </c>
       <c r="F16">
-        <v>1.019157289609197</v>
+        <v>1.000576939160752</v>
       </c>
       <c r="G16">
-        <v>0.1814921969441059</v>
+        <v>0.1697715159021413</v>
       </c>
       <c r="H16">
-        <v>0.1620921830014197</v>
+        <v>0.1620936681117655</v>
       </c>
       <c r="I16">
-        <v>0.002767748645373658</v>
+        <v>0.003205073050018825</v>
       </c>
       <c r="J16">
-        <v>0.2020459505025087</v>
+        <v>0.2140735834183793</v>
       </c>
       <c r="K16">
-        <v>0.1780774386573132</v>
+        <v>0.1664984143407899</v>
       </c>
       <c r="L16">
-        <v>0.1240315336296263</v>
+        <v>0.09591024748196997</v>
       </c>
       <c r="M16">
-        <v>1.057090804667922</v>
+        <v>0.03999658722603883</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1271617457689445</v>
       </c>
       <c r="O16">
-        <v>0.4558869473268103</v>
+        <v>1.049737646791215</v>
       </c>
       <c r="P16">
-        <v>0.7823525281622636</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7566659569050671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4613643366629958</v>
+      </c>
+      <c r="R16">
+        <v>0.7953752931280462</v>
+      </c>
+      <c r="S16">
+        <v>0.7140956557758784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9599064053783479</v>
+        <v>0.9303724260044248</v>
       </c>
       <c r="C17">
-        <v>0.1615906329869148</v>
+        <v>0.1675787882078765</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2552536737457487</v>
+        <v>0.2604732088102324</v>
       </c>
       <c r="F17">
-        <v>1.070704646738889</v>
+        <v>1.05427104535039</v>
       </c>
       <c r="G17">
-        <v>0.1870692425844709</v>
+        <v>0.1678645976740185</v>
       </c>
       <c r="H17">
-        <v>0.1242527317620983</v>
+        <v>0.1242531060390633</v>
       </c>
       <c r="I17">
-        <v>0.002602468147962611</v>
+        <v>0.003072230377359375</v>
       </c>
       <c r="J17">
-        <v>0.2065540388016274</v>
+        <v>0.2268253498136801</v>
       </c>
       <c r="K17">
-        <v>0.1832108474192768</v>
+        <v>0.1719271952252619</v>
       </c>
       <c r="L17">
-        <v>0.1078344984729327</v>
+        <v>0.09855952336816554</v>
       </c>
       <c r="M17">
-        <v>1.015747728470245</v>
+        <v>0.04089471894292807</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1101771946151686</v>
       </c>
       <c r="O17">
-        <v>0.4812555325140693</v>
+        <v>1.011812766458092</v>
       </c>
       <c r="P17">
-        <v>0.7796655396776302</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7778431396322247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.486541099261693</v>
+      </c>
+      <c r="R17">
+        <v>0.7886993798477135</v>
+      </c>
+      <c r="S17">
+        <v>0.7402513267170008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9343681163013002</v>
+        <v>0.9050383258593229</v>
       </c>
       <c r="C18">
-        <v>0.1600142380895733</v>
+        <v>0.1667397474199248</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3347568482668208</v>
+        <v>0.3406586249192856</v>
       </c>
       <c r="F18">
-        <v>1.204773775415532</v>
+        <v>1.187720490909811</v>
       </c>
       <c r="G18">
-        <v>0.1990752178058059</v>
+        <v>0.1759394885879288</v>
       </c>
       <c r="H18">
-        <v>0.07139133805015518</v>
+        <v>0.0713908681289297</v>
       </c>
       <c r="I18">
-        <v>0.002317233187870471</v>
+        <v>0.002749220923282891</v>
       </c>
       <c r="J18">
-        <v>0.2136967090003026</v>
+        <v>0.237372485747386</v>
       </c>
       <c r="K18">
-        <v>0.1907168018267971</v>
+        <v>0.1787729160732372</v>
       </c>
       <c r="L18">
-        <v>0.08582156585317335</v>
+        <v>0.1015626509910614</v>
       </c>
       <c r="M18">
-        <v>0.9920666953125306</v>
+        <v>0.04283322459586003</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08759689336502419</v>
       </c>
       <c r="O18">
-        <v>0.5576749152004439</v>
+        <v>0.9895581055584444</v>
       </c>
       <c r="P18">
-        <v>0.7683986384905097</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8182152066312227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.563428336992331</v>
+      </c>
+      <c r="R18">
+        <v>0.7751470165817764</v>
+      </c>
+      <c r="S18">
+        <v>0.7800160363773898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9210761532127947</v>
+        <v>0.8899047738911179</v>
       </c>
       <c r="C19">
-        <v>0.1619716525645885</v>
+        <v>0.1700117969976134</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4617802411355569</v>
+        <v>0.4691901475840581</v>
       </c>
       <c r="F19">
-        <v>1.404104246439644</v>
+        <v>1.384541815915981</v>
       </c>
       <c r="G19">
-        <v>0.2145425067950484</v>
+        <v>0.1891056114909517</v>
       </c>
       <c r="H19">
-        <v>0.02616099697223717</v>
+        <v>0.02616095475590896</v>
       </c>
       <c r="I19">
-        <v>0.002466974643894559</v>
+        <v>0.00292278034295812</v>
       </c>
       <c r="J19">
-        <v>0.2219128681979257</v>
+        <v>0.246115495140252</v>
       </c>
       <c r="K19">
-        <v>0.1988800723718747</v>
+        <v>0.1857142785083941</v>
       </c>
       <c r="L19">
-        <v>0.06561798098487159</v>
+        <v>0.1043857598270517</v>
       </c>
       <c r="M19">
-        <v>0.9842946078347552</v>
+        <v>0.04524419225072052</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.06689135734136542</v>
       </c>
       <c r="O19">
-        <v>0.6772332703605741</v>
+        <v>0.9821436587540404</v>
       </c>
       <c r="P19">
-        <v>0.7536438411987447</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.8682163977138941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6839576913961736</v>
+      </c>
+      <c r="R19">
+        <v>0.7591609541323265</v>
+      </c>
+      <c r="S19">
+        <v>0.8260123141507307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9491762529277707</v>
+        <v>0.9105762449090093</v>
       </c>
       <c r="C20">
-        <v>0.1708125526041329</v>
+        <v>0.1816344804524874</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7158629204677425</v>
+        <v>0.7277450417389559</v>
       </c>
       <c r="F20">
-        <v>1.783570843621931</v>
+        <v>1.7555679406845</v>
       </c>
       <c r="G20">
-        <v>0.2413340868689176</v>
+        <v>0.2185812430000098</v>
       </c>
       <c r="H20">
-        <v>0.0004840840446775907</v>
+        <v>0.0004771412025541544</v>
       </c>
       <c r="I20">
-        <v>0.002917489784772798</v>
+        <v>0.00336006951251111</v>
       </c>
       <c r="J20">
-        <v>0.2339488772473857</v>
+        <v>0.2495220226027541</v>
       </c>
       <c r="K20">
-        <v>0.210181744488704</v>
+        <v>0.1939252251120571</v>
       </c>
       <c r="L20">
-        <v>0.04949346561725143</v>
+        <v>0.1066240584033515</v>
       </c>
       <c r="M20">
-        <v>1.021348770823181</v>
+        <v>0.04980021285664193</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.05010520076398528</v>
       </c>
       <c r="O20">
-        <v>0.9133622445200942</v>
+        <v>1.016909085124297</v>
       </c>
       <c r="P20">
-        <v>0.7260656260056102</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9503446603758761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9225314344336084</v>
+      </c>
+      <c r="R20">
+        <v>0.7321999097798297</v>
+      </c>
+      <c r="S20">
+        <v>0.8937360056240919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.066202555276675</v>
+        <v>1.010315195195176</v>
       </c>
       <c r="C21">
-        <v>0.1868794070248185</v>
+        <v>0.1970194351414847</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8150517897616822</v>
+        <v>0.8382482639802333</v>
       </c>
       <c r="F21">
-        <v>1.97114936717351</v>
+        <v>1.921292923539994</v>
       </c>
       <c r="G21">
-        <v>0.2516473304014184</v>
+        <v>0.2740544838849033</v>
       </c>
       <c r="H21">
-        <v>0.0014077590027608</v>
+        <v>0.001350761986327331</v>
       </c>
       <c r="I21">
-        <v>0.003932964888561763</v>
+        <v>0.00424574124162902</v>
       </c>
       <c r="J21">
-        <v>0.2343734387840755</v>
+        <v>0.2027457603890142</v>
       </c>
       <c r="K21">
-        <v>0.2080685213419713</v>
+        <v>0.1858503550646589</v>
       </c>
       <c r="L21">
-        <v>0.05256744647265421</v>
+        <v>0.1007370860524208</v>
       </c>
       <c r="M21">
-        <v>1.143532012269532</v>
+        <v>0.05165471321932102</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.05371312264108496</v>
       </c>
       <c r="O21">
-        <v>1.043341465686154</v>
+        <v>1.123082072951064</v>
       </c>
       <c r="P21">
-        <v>0.701183741840584</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9733780304877371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.056098549678921</v>
+      </c>
+      <c r="R21">
+        <v>0.717600573590353</v>
+      </c>
+      <c r="S21">
+        <v>0.8747361261222864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.14518318191142</v>
+        <v>1.077362823047423</v>
       </c>
       <c r="C22">
-        <v>0.1961739271042688</v>
+        <v>0.2053636830008543</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8670504622699298</v>
+        <v>0.898350746326642</v>
       </c>
       <c r="F22">
-        <v>2.079196939939493</v>
+        <v>2.013921620294084</v>
       </c>
       <c r="G22">
-        <v>0.2584259938925513</v>
+        <v>0.3176474167389358</v>
       </c>
       <c r="H22">
-        <v>0.00234793527901167</v>
+        <v>0.002239172647982901</v>
       </c>
       <c r="I22">
-        <v>0.004436438299944001</v>
+        <v>0.00456668883540523</v>
       </c>
       <c r="J22">
-        <v>0.2347299160613119</v>
+        <v>0.1800634676200445</v>
       </c>
       <c r="K22">
-        <v>0.2070208828172575</v>
+        <v>0.1806011260860636</v>
       </c>
       <c r="L22">
-        <v>0.05504026737091117</v>
+        <v>0.09715554826525974</v>
       </c>
       <c r="M22">
-        <v>1.223320694402531</v>
+        <v>0.05305113046421361</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.05661992349045875</v>
       </c>
       <c r="O22">
-        <v>1.117529117699334</v>
+        <v>1.191202548189523</v>
       </c>
       <c r="P22">
-        <v>0.6858979702773595</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9886718073422429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.132690798922766</v>
+      </c>
+      <c r="R22">
+        <v>0.7098068579983519</v>
+      </c>
+      <c r="S22">
+        <v>0.860286203593148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.105343646481913</v>
+        <v>1.044734510717973</v>
       </c>
       <c r="C23">
-        <v>0.1901529870402072</v>
+        <v>0.200359530649493</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8387181485150279</v>
+        <v>0.8645940344316472</v>
       </c>
       <c r="F23">
-        <v>2.022814884030382</v>
+        <v>1.967638170892087</v>
       </c>
       <c r="G23">
-        <v>0.2556395914184577</v>
+        <v>0.2890531705401145</v>
       </c>
       <c r="H23">
-        <v>0.001819963060716301</v>
+        <v>0.001742714423652592</v>
       </c>
       <c r="I23">
-        <v>0.003874783408564397</v>
+        <v>0.004047974475971827</v>
       </c>
       <c r="J23">
-        <v>0.2349660652625687</v>
+        <v>0.1947998672073084</v>
       </c>
       <c r="K23">
-        <v>0.2082630712310731</v>
+        <v>0.1844915413466879</v>
       </c>
       <c r="L23">
-        <v>0.05369202201194234</v>
+        <v>0.0993856076862194</v>
       </c>
       <c r="M23">
-        <v>1.180740092175796</v>
+        <v>0.05277843475381871</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.05498426767547215</v>
       </c>
       <c r="O23">
-        <v>1.077428379730826</v>
+        <v>1.156574832672703</v>
       </c>
       <c r="P23">
-        <v>0.6935057736392984</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9831657537386747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.091096309781648</v>
+      </c>
+      <c r="R23">
+        <v>0.7125222647277027</v>
+      </c>
+      <c r="S23">
+        <v>0.8742306120522159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9502867731582114</v>
+        <v>0.911557521487083</v>
       </c>
       <c r="C24">
-        <v>0.1692555538463836</v>
+        <v>0.1800501208535366</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7327078821927557</v>
+        <v>0.7447099590107911</v>
       </c>
       <c r="F24">
-        <v>1.809170286817775</v>
+        <v>1.780972793945452</v>
       </c>
       <c r="G24">
-        <v>0.2444178215957891</v>
+        <v>0.2211367556805328</v>
       </c>
       <c r="H24">
-        <v>0.0004073654531220328</v>
+        <v>0.0004000601609597254</v>
       </c>
       <c r="I24">
-        <v>0.002459423723146337</v>
+        <v>0.002802514764156605</v>
       </c>
       <c r="J24">
-        <v>0.2355878979008281</v>
+        <v>0.2514782160515239</v>
       </c>
       <c r="K24">
-        <v>0.2122769091858245</v>
+        <v>0.1958065193306133</v>
       </c>
       <c r="L24">
-        <v>0.04864225859720328</v>
+        <v>0.1073711678310616</v>
       </c>
       <c r="M24">
-        <v>1.019421349669784</v>
+        <v>0.05046748016560088</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04916959903232865</v>
       </c>
       <c r="O24">
-        <v>0.9267257971703202</v>
+        <v>1.015112280784763</v>
       </c>
       <c r="P24">
-        <v>0.7243580727830476</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9603138477693278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9359826553308466</v>
+      </c>
+      <c r="R24">
+        <v>0.7300743437831656</v>
+      </c>
+      <c r="S24">
+        <v>0.9032788678909895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7821728096254219</v>
+        <v>0.7568097744119768</v>
       </c>
       <c r="C25">
-        <v>0.1470211398813746</v>
+        <v>0.1520384682131066</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6189762237376186</v>
+        <v>0.6276670537542728</v>
       </c>
       <c r="F25">
-        <v>1.582777473894524</v>
+        <v>1.562994000005716</v>
       </c>
       <c r="G25">
-        <v>0.2337762907674872</v>
+        <v>0.2090444337362314</v>
       </c>
       <c r="H25">
-        <v>2.678833579738971E-05</v>
+        <v>2.382411835566423E-05</v>
       </c>
       <c r="I25">
-        <v>0.001476367378288046</v>
+        <v>0.001845088921817784</v>
       </c>
       <c r="J25">
-        <v>0.2371817682792425</v>
+        <v>0.2584485295220418</v>
       </c>
       <c r="K25">
-        <v>0.217535416701466</v>
+        <v>0.203144678936205</v>
       </c>
       <c r="L25">
-        <v>0.04319214303492913</v>
+        <v>0.1150121152782386</v>
       </c>
       <c r="M25">
-        <v>0.8451904198670661</v>
+        <v>0.04708873009741055</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.04341718016425844</v>
       </c>
       <c r="O25">
-        <v>0.7647728278374188</v>
+        <v>0.8433337918698101</v>
       </c>
       <c r="P25">
-        <v>0.7600639117389143</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9406779216658947</v>
+        <v>0.7715072088730111</v>
+      </c>
+      <c r="R25">
+        <v>0.7589618961660349</v>
+      </c>
+      <c r="S25">
+        <v>0.8965968338664396</v>
       </c>
     </row>
   </sheetData>
